--- a/ch9.geo/행정구역_시군구_별__성별_인구수_2.xlsx
+++ b/ch9.geo/행정구역_시군구_별__성별_인구수_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="442">
   <si>
     <t>총인구수 (명)</t>
   </si>
@@ -1448,12 +1448,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1740,15 +1740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>440</v>
       </c>
@@ -1764,26 +1764,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,26 +1781,8 @@
       <c r="E2" s="2">
         <v>25730779</v>
       </c>
-      <c r="F2" s="2">
-        <v>51238450</v>
-      </c>
-      <c r="G2" s="2">
-        <v>25511290</v>
-      </c>
-      <c r="H2" s="2">
-        <v>25727160</v>
-      </c>
-      <c r="I2" s="2">
-        <v>51226757</v>
-      </c>
-      <c r="J2" s="2">
-        <v>25504176</v>
-      </c>
-      <c r="K2" s="2">
-        <v>25722581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1834,26 +1798,8 @@
       <c r="E3" s="2">
         <v>4835204</v>
       </c>
-      <c r="F3" s="2">
-        <v>9343304</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4511734</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4831570</v>
-      </c>
-      <c r="I3" s="2">
-        <v>9335495</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4507664</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4827831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1869,26 +1815,8 @@
       <c r="E4" s="2">
         <v>72033</v>
       </c>
-      <c r="F4" s="2">
-        <v>138760</v>
-      </c>
-      <c r="G4" s="2">
-        <v>66783</v>
-      </c>
-      <c r="H4" s="2">
-        <v>71977</v>
-      </c>
-      <c r="I4" s="2">
-        <v>138577</v>
-      </c>
-      <c r="J4" s="2">
-        <v>66673</v>
-      </c>
-      <c r="K4" s="2">
-        <v>71904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1904,26 +1832,8 @@
       <c r="E5" s="2">
         <v>62877</v>
       </c>
-      <c r="F5" s="2">
-        <v>121224</v>
-      </c>
-      <c r="G5" s="2">
-        <v>58405</v>
-      </c>
-      <c r="H5" s="2">
-        <v>62819</v>
-      </c>
-      <c r="I5" s="2">
-        <v>120931</v>
-      </c>
-      <c r="J5" s="2">
-        <v>58247</v>
-      </c>
-      <c r="K5" s="2">
-        <v>62684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1939,26 +1849,8 @@
       <c r="E6" s="2">
         <v>107027</v>
       </c>
-      <c r="F6" s="2">
-        <v>204463</v>
-      </c>
-      <c r="G6" s="2">
-        <v>97840</v>
-      </c>
-      <c r="H6" s="2">
-        <v>106623</v>
-      </c>
-      <c r="I6" s="2">
-        <v>204079</v>
-      </c>
-      <c r="J6" s="2">
-        <v>97628</v>
-      </c>
-      <c r="K6" s="2">
-        <v>106451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1974,26 +1866,8 @@
       <c r="E7" s="2">
         <v>142132</v>
       </c>
-      <c r="F7" s="2">
-        <v>274966</v>
-      </c>
-      <c r="G7" s="2">
-        <v>133097</v>
-      </c>
-      <c r="H7" s="2">
-        <v>141869</v>
-      </c>
-      <c r="I7" s="2">
-        <v>274287</v>
-      </c>
-      <c r="J7" s="2">
-        <v>132769</v>
-      </c>
-      <c r="K7" s="2">
-        <v>141518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2009,26 +1883,8 @@
       <c r="E8" s="2">
         <v>173455</v>
       </c>
-      <c r="F8" s="2">
-        <v>332942</v>
-      </c>
-      <c r="G8" s="2">
-        <v>159732</v>
-      </c>
-      <c r="H8" s="2">
-        <v>173210</v>
-      </c>
-      <c r="I8" s="2">
-        <v>332571</v>
-      </c>
-      <c r="J8" s="2">
-        <v>159576</v>
-      </c>
-      <c r="K8" s="2">
-        <v>172995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -2044,26 +1900,8 @@
       <c r="E9" s="2">
         <v>173993</v>
       </c>
-      <c r="F9" s="2">
-        <v>340299</v>
-      </c>
-      <c r="G9" s="2">
-        <v>166445</v>
-      </c>
-      <c r="H9" s="2">
-        <v>173854</v>
-      </c>
-      <c r="I9" s="2">
-        <v>339611</v>
-      </c>
-      <c r="J9" s="2">
-        <v>166095</v>
-      </c>
-      <c r="K9" s="2">
-        <v>173516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2079,26 +1917,8 @@
       <c r="E10" s="2">
         <v>194301</v>
       </c>
-      <c r="F10" s="2">
-        <v>379977</v>
-      </c>
-      <c r="G10" s="2">
-        <v>185834</v>
-      </c>
-      <c r="H10" s="2">
-        <v>194143</v>
-      </c>
-      <c r="I10" s="2">
-        <v>379541</v>
-      </c>
-      <c r="J10" s="2">
-        <v>185591</v>
-      </c>
-      <c r="K10" s="2">
-        <v>193950</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -2114,26 +1934,8 @@
       <c r="E11" s="2">
         <v>220464</v>
       </c>
-      <c r="F11" s="2">
-        <v>422696</v>
-      </c>
-      <c r="G11" s="2">
-        <v>202624</v>
-      </c>
-      <c r="H11" s="2">
-        <v>220072</v>
-      </c>
-      <c r="I11" s="2">
-        <v>422141</v>
-      </c>
-      <c r="J11" s="2">
-        <v>202309</v>
-      </c>
-      <c r="K11" s="2">
-        <v>219832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2149,26 +1951,8 @@
       <c r="E12" s="2">
         <v>147067</v>
       </c>
-      <c r="F12" s="2">
-        <v>284255</v>
-      </c>
-      <c r="G12" s="2">
-        <v>137168</v>
-      </c>
-      <c r="H12" s="2">
-        <v>147087</v>
-      </c>
-      <c r="I12" s="2">
-        <v>283934</v>
-      </c>
-      <c r="J12" s="2">
-        <v>136992</v>
-      </c>
-      <c r="K12" s="2">
-        <v>146942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2184,26 +1968,8 @@
       <c r="E13" s="2">
         <v>156994</v>
       </c>
-      <c r="F13" s="2">
-        <v>303925</v>
-      </c>
-      <c r="G13" s="2">
-        <v>147082</v>
-      </c>
-      <c r="H13" s="2">
-        <v>156843</v>
-      </c>
-      <c r="I13" s="2">
-        <v>303468</v>
-      </c>
-      <c r="J13" s="2">
-        <v>146848</v>
-      </c>
-      <c r="K13" s="2">
-        <v>156620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2219,26 +1985,8 @@
       <c r="E14" s="2">
         <v>256938</v>
       </c>
-      <c r="F14" s="2">
-        <v>492544</v>
-      </c>
-      <c r="G14" s="2">
-        <v>236091</v>
-      </c>
-      <c r="H14" s="2">
-        <v>256453</v>
-      </c>
-      <c r="I14" s="2">
-        <v>492072</v>
-      </c>
-      <c r="J14" s="2">
-        <v>235878</v>
-      </c>
-      <c r="K14" s="2">
-        <v>256194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2254,26 +2002,8 @@
       <c r="E15" s="2">
         <v>243469</v>
       </c>
-      <c r="F15" s="2">
-        <v>461788</v>
-      </c>
-      <c r="G15" s="2">
-        <v>218678</v>
-      </c>
-      <c r="H15" s="2">
-        <v>243110</v>
-      </c>
-      <c r="I15" s="2">
-        <v>461086</v>
-      </c>
-      <c r="J15" s="2">
-        <v>218310</v>
-      </c>
-      <c r="K15" s="2">
-        <v>242776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2289,26 +2019,8 @@
       <c r="E16" s="2">
         <v>160235</v>
       </c>
-      <c r="F16" s="2">
-        <v>303912</v>
-      </c>
-      <c r="G16" s="2">
-        <v>143979</v>
-      </c>
-      <c r="H16" s="2">
-        <v>159933</v>
-      </c>
-      <c r="I16" s="2">
-        <v>303453</v>
-      </c>
-      <c r="J16" s="2">
-        <v>143714</v>
-      </c>
-      <c r="K16" s="2">
-        <v>159739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2324,26 +2036,8 @@
       <c r="E17" s="2">
         <v>193616</v>
       </c>
-      <c r="F17" s="2">
-        <v>362006</v>
-      </c>
-      <c r="G17" s="2">
-        <v>168652</v>
-      </c>
-      <c r="H17" s="2">
-        <v>193354</v>
-      </c>
-      <c r="I17" s="2">
-        <v>361841</v>
-      </c>
-      <c r="J17" s="2">
-        <v>168544</v>
-      </c>
-      <c r="K17" s="2">
-        <v>193297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2359,26 +2053,8 @@
       <c r="E18" s="2">
         <v>221649</v>
       </c>
-      <c r="F18" s="2">
-        <v>432169</v>
-      </c>
-      <c r="G18" s="2">
-        <v>210762</v>
-      </c>
-      <c r="H18" s="2">
-        <v>221407</v>
-      </c>
-      <c r="I18" s="2">
-        <v>431623</v>
-      </c>
-      <c r="J18" s="2">
-        <v>210547</v>
-      </c>
-      <c r="K18" s="2">
-        <v>221076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -2394,26 +2070,8 @@
       <c r="E19" s="2">
         <v>290643</v>
       </c>
-      <c r="F19" s="2">
-        <v>557655</v>
-      </c>
-      <c r="G19" s="2">
-        <v>267015</v>
-      </c>
-      <c r="H19" s="2">
-        <v>290640</v>
-      </c>
-      <c r="I19" s="2">
-        <v>557095</v>
-      </c>
-      <c r="J19" s="2">
-        <v>266725</v>
-      </c>
-      <c r="K19" s="2">
-        <v>290370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -2429,26 +2087,8 @@
       <c r="E20" s="2">
         <v>198721</v>
       </c>
-      <c r="F20" s="2">
-        <v>388823</v>
-      </c>
-      <c r="G20" s="2">
-        <v>190367</v>
-      </c>
-      <c r="H20" s="2">
-        <v>198456</v>
-      </c>
-      <c r="I20" s="2">
-        <v>388488</v>
-      </c>
-      <c r="J20" s="2">
-        <v>190209</v>
-      </c>
-      <c r="K20" s="2">
-        <v>198279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
@@ -2464,26 +2104,8 @@
       <c r="E21" s="2">
         <v>112371</v>
       </c>
-      <c r="F21" s="2">
-        <v>225758</v>
-      </c>
-      <c r="G21" s="2">
-        <v>113495</v>
-      </c>
-      <c r="H21" s="2">
-        <v>112263</v>
-      </c>
-      <c r="I21" s="2">
-        <v>225371</v>
-      </c>
-      <c r="J21" s="2">
-        <v>113304</v>
-      </c>
-      <c r="K21" s="2">
-        <v>112067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -2499,26 +2121,8 @@
       <c r="E22" s="2">
         <v>191464</v>
       </c>
-      <c r="F22" s="2">
-        <v>374141</v>
-      </c>
-      <c r="G22" s="2">
-        <v>183001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>191140</v>
-      </c>
-      <c r="I22" s="2">
-        <v>374201</v>
-      </c>
-      <c r="J22" s="2">
-        <v>183006</v>
-      </c>
-      <c r="K22" s="2">
-        <v>191195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2534,26 +2138,8 @@
       <c r="E23" s="2">
         <v>194932</v>
       </c>
-      <c r="F23" s="2">
-        <v>376726</v>
-      </c>
-      <c r="G23" s="2">
-        <v>181979</v>
-      </c>
-      <c r="H23" s="2">
-        <v>194747</v>
-      </c>
-      <c r="I23" s="2">
-        <v>376440</v>
-      </c>
-      <c r="J23" s="2">
-        <v>181886</v>
-      </c>
-      <c r="K23" s="2">
-        <v>194554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2569,26 +2155,8 @@
       <c r="E24" s="2">
         <v>238169</v>
       </c>
-      <c r="F24" s="2">
-        <v>478894</v>
-      </c>
-      <c r="G24" s="2">
-        <v>241128</v>
-      </c>
-      <c r="H24" s="2">
-        <v>237766</v>
-      </c>
-      <c r="I24" s="2">
-        <v>478167</v>
-      </c>
-      <c r="J24" s="2">
-        <v>240716</v>
-      </c>
-      <c r="K24" s="2">
-        <v>237451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
@@ -2604,26 +2172,8 @@
       <c r="E25" s="2">
         <v>213975</v>
       </c>
-      <c r="F25" s="2">
-        <v>408576</v>
-      </c>
-      <c r="G25" s="2">
-        <v>194274</v>
-      </c>
-      <c r="H25" s="2">
-        <v>214302</v>
-      </c>
-      <c r="I25" s="2">
-        <v>408382</v>
-      </c>
-      <c r="J25" s="2">
-        <v>194172</v>
-      </c>
-      <c r="K25" s="2">
-        <v>214210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2639,26 +2189,8 @@
       <c r="E26" s="2">
         <v>291412</v>
       </c>
-      <c r="F26" s="2">
-        <v>558655</v>
-      </c>
-      <c r="G26" s="2">
-        <v>267129</v>
-      </c>
-      <c r="H26" s="2">
-        <v>291526</v>
-      </c>
-      <c r="I26" s="2">
-        <v>557942</v>
-      </c>
-      <c r="J26" s="2">
-        <v>266731</v>
-      </c>
-      <c r="K26" s="2">
-        <v>291211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -2674,26 +2206,8 @@
       <c r="E27" s="2">
         <v>339198</v>
       </c>
-      <c r="F27" s="2">
-        <v>652343</v>
-      </c>
-      <c r="G27" s="2">
-        <v>312804</v>
-      </c>
-      <c r="H27" s="2">
-        <v>339539</v>
-      </c>
-      <c r="I27" s="2">
-        <v>651910</v>
-      </c>
-      <c r="J27" s="2">
-        <v>312616</v>
-      </c>
-      <c r="K27" s="2">
-        <v>339294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
@@ -2709,26 +2223,8 @@
       <c r="E28" s="2">
         <v>238069</v>
       </c>
-      <c r="F28" s="2">
-        <v>465807</v>
-      </c>
-      <c r="G28" s="2">
-        <v>227370</v>
-      </c>
-      <c r="H28" s="2">
-        <v>238437</v>
-      </c>
-      <c r="I28" s="2">
-        <v>468284</v>
-      </c>
-      <c r="J28" s="2">
-        <v>228578</v>
-      </c>
-      <c r="K28" s="2">
-        <v>239706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -2744,26 +2240,8 @@
       <c r="E29" s="2">
         <v>1679690</v>
       </c>
-      <c r="F29" s="2">
-        <v>3271062</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1592440</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1678622</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3268993</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1591231</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1677762</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -2779,26 +2257,8 @@
       <c r="E30" s="2">
         <v>19505</v>
       </c>
-      <c r="F30" s="2">
-        <v>37736</v>
-      </c>
-      <c r="G30" s="2">
-        <v>18305</v>
-      </c>
-      <c r="H30" s="2">
-        <v>19431</v>
-      </c>
-      <c r="I30" s="2">
-        <v>37628</v>
-      </c>
-      <c r="J30" s="2">
-        <v>18254</v>
-      </c>
-      <c r="K30" s="2">
-        <v>19374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -2814,26 +2274,8 @@
       <c r="E31" s="2">
         <v>53604</v>
       </c>
-      <c r="F31" s="2">
-        <v>103337</v>
-      </c>
-      <c r="G31" s="2">
-        <v>49632</v>
-      </c>
-      <c r="H31" s="2">
-        <v>53705</v>
-      </c>
-      <c r="I31" s="2">
-        <v>103239</v>
-      </c>
-      <c r="J31" s="2">
-        <v>49571</v>
-      </c>
-      <c r="K31" s="2">
-        <v>53668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -2849,26 +2291,8 @@
       <c r="E32" s="2">
         <v>44372</v>
       </c>
-      <c r="F32" s="2">
-        <v>86151</v>
-      </c>
-      <c r="G32" s="2">
-        <v>41851</v>
-      </c>
-      <c r="H32" s="2">
-        <v>44300</v>
-      </c>
-      <c r="I32" s="2">
-        <v>86087</v>
-      </c>
-      <c r="J32" s="2">
-        <v>41818</v>
-      </c>
-      <c r="K32" s="2">
-        <v>44269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -2884,26 +2308,8 @@
       <c r="E33" s="2">
         <v>53266</v>
       </c>
-      <c r="F33" s="2">
-        <v>104278</v>
-      </c>
-      <c r="G33" s="2">
-        <v>51197</v>
-      </c>
-      <c r="H33" s="2">
-        <v>53081</v>
-      </c>
-      <c r="I33" s="2">
-        <v>103970</v>
-      </c>
-      <c r="J33" s="2">
-        <v>51047</v>
-      </c>
-      <c r="K33" s="2">
-        <v>52923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -2919,26 +2325,8 @@
       <c r="E34" s="2">
         <v>188146</v>
       </c>
-      <c r="F34" s="2">
-        <v>360740</v>
-      </c>
-      <c r="G34" s="2">
-        <v>172932</v>
-      </c>
-      <c r="H34" s="2">
-        <v>187808</v>
-      </c>
-      <c r="I34" s="2">
-        <v>359856</v>
-      </c>
-      <c r="J34" s="2">
-        <v>172396</v>
-      </c>
-      <c r="K34" s="2">
-        <v>187460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
@@ -2954,26 +2342,8 @@
       <c r="E35" s="2">
         <v>139374</v>
       </c>
-      <c r="F35" s="2">
-        <v>271639</v>
-      </c>
-      <c r="G35" s="2">
-        <v>130924</v>
-      </c>
-      <c r="H35" s="2">
-        <v>140715</v>
-      </c>
-      <c r="I35" s="2">
-        <v>273654</v>
-      </c>
-      <c r="J35" s="2">
-        <v>131897</v>
-      </c>
-      <c r="K35" s="2">
-        <v>141757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -2989,26 +2359,8 @@
       <c r="E36" s="2">
         <v>131106</v>
       </c>
-      <c r="F36" s="2">
-        <v>255096</v>
-      </c>
-      <c r="G36" s="2">
-        <v>124156</v>
-      </c>
-      <c r="H36" s="2">
-        <v>130940</v>
-      </c>
-      <c r="I36" s="2">
-        <v>254784</v>
-      </c>
-      <c r="J36" s="2">
-        <v>124008</v>
-      </c>
-      <c r="K36" s="2">
-        <v>130776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -3024,26 +2376,8 @@
       <c r="E37" s="2">
         <v>137200</v>
       </c>
-      <c r="F37" s="2">
-        <v>268650</v>
-      </c>
-      <c r="G37" s="2">
-        <v>131862</v>
-      </c>
-      <c r="H37" s="2">
-        <v>136788</v>
-      </c>
-      <c r="I37" s="2">
-        <v>267988</v>
-      </c>
-      <c r="J37" s="2">
-        <v>131490</v>
-      </c>
-      <c r="K37" s="2">
-        <v>136498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
@@ -3059,26 +2393,8 @@
       <c r="E38" s="2">
         <v>196448</v>
       </c>
-      <c r="F38" s="2">
-        <v>376621</v>
-      </c>
-      <c r="G38" s="2">
-        <v>180449</v>
-      </c>
-      <c r="H38" s="2">
-        <v>196172</v>
-      </c>
-      <c r="I38" s="2">
-        <v>376448</v>
-      </c>
-      <c r="J38" s="2">
-        <v>180314</v>
-      </c>
-      <c r="K38" s="2">
-        <v>196134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
@@ -3094,26 +2410,8 @@
       <c r="E39" s="2">
         <v>147520</v>
       </c>
-      <c r="F39" s="2">
-        <v>292717</v>
-      </c>
-      <c r="G39" s="2">
-        <v>145168</v>
-      </c>
-      <c r="H39" s="2">
-        <v>147549</v>
-      </c>
-      <c r="I39" s="2">
-        <v>292791</v>
-      </c>
-      <c r="J39" s="2">
-        <v>145205</v>
-      </c>
-      <c r="K39" s="2">
-        <v>147586</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
@@ -3129,26 +2427,8 @@
       <c r="E40" s="2">
         <v>108669</v>
       </c>
-      <c r="F40" s="2">
-        <v>210905</v>
-      </c>
-      <c r="G40" s="2">
-        <v>102701</v>
-      </c>
-      <c r="H40" s="2">
-        <v>108204</v>
-      </c>
-      <c r="I40" s="2">
-        <v>210377</v>
-      </c>
-      <c r="J40" s="2">
-        <v>102443</v>
-      </c>
-      <c r="K40" s="2">
-        <v>107934</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>30</v>
       </c>
@@ -3164,26 +2444,8 @@
       <c r="E41" s="2">
         <v>68886</v>
       </c>
-      <c r="F41" s="2">
-        <v>142902</v>
-      </c>
-      <c r="G41" s="2">
-        <v>74036</v>
-      </c>
-      <c r="H41" s="2">
-        <v>68866</v>
-      </c>
-      <c r="I41" s="2">
-        <v>142777</v>
-      </c>
-      <c r="J41" s="2">
-        <v>73974</v>
-      </c>
-      <c r="K41" s="2">
-        <v>68803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -3199,26 +2461,8 @@
       <c r="E42" s="2">
         <v>111060</v>
       </c>
-      <c r="F42" s="2">
-        <v>212400</v>
-      </c>
-      <c r="G42" s="2">
-        <v>101340</v>
-      </c>
-      <c r="H42" s="2">
-        <v>111060</v>
-      </c>
-      <c r="I42" s="2">
-        <v>212481</v>
-      </c>
-      <c r="J42" s="2">
-        <v>101438</v>
-      </c>
-      <c r="K42" s="2">
-        <v>111043</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>30</v>
       </c>
@@ -3234,26 +2478,8 @@
       <c r="E43" s="2">
         <v>91821</v>
       </c>
-      <c r="F43" s="2">
-        <v>172329</v>
-      </c>
-      <c r="G43" s="2">
-        <v>80639</v>
-      </c>
-      <c r="H43" s="2">
-        <v>91690</v>
-      </c>
-      <c r="I43" s="2">
-        <v>172026</v>
-      </c>
-      <c r="J43" s="2">
-        <v>80484</v>
-      </c>
-      <c r="K43" s="2">
-        <v>91542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -3269,26 +2495,8 @@
       <c r="E44" s="2">
         <v>99744</v>
       </c>
-      <c r="F44" s="2">
-        <v>199406</v>
-      </c>
-      <c r="G44" s="2">
-        <v>99950</v>
-      </c>
-      <c r="H44" s="2">
-        <v>99456</v>
-      </c>
-      <c r="I44" s="2">
-        <v>199070</v>
-      </c>
-      <c r="J44" s="2">
-        <v>99792</v>
-      </c>
-      <c r="K44" s="2">
-        <v>99278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
@@ -3304,26 +2512,8 @@
       <c r="E45" s="2">
         <v>88969</v>
       </c>
-      <c r="F45" s="2">
-        <v>176155</v>
-      </c>
-      <c r="G45" s="2">
-        <v>87298</v>
-      </c>
-      <c r="H45" s="2">
-        <v>88857</v>
-      </c>
-      <c r="I45" s="2">
-        <v>175817</v>
-      </c>
-      <c r="J45" s="2">
-        <v>87100</v>
-      </c>
-      <c r="K45" s="2">
-        <v>88717</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -3339,26 +2529,8 @@
       <c r="E46" s="2">
         <v>1204711</v>
       </c>
-      <c r="F46" s="2">
-        <v>2364892</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1160429</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1204463</v>
-      </c>
-      <c r="I46" s="2">
-        <v>2364334</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1160074</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1204260</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -3374,26 +2546,8 @@
       <c r="E47" s="2">
         <v>49423</v>
       </c>
-      <c r="F47" s="2">
-        <v>95749</v>
-      </c>
-      <c r="G47" s="2">
-        <v>45830</v>
-      </c>
-      <c r="H47" s="2">
-        <v>49919</v>
-      </c>
-      <c r="I47" s="2">
-        <v>96757</v>
-      </c>
-      <c r="J47" s="2">
-        <v>46349</v>
-      </c>
-      <c r="K47" s="2">
-        <v>50408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -3409,26 +2563,8 @@
       <c r="E48" s="2">
         <v>175292</v>
       </c>
-      <c r="F48" s="2">
-        <v>343137</v>
-      </c>
-      <c r="G48" s="2">
-        <v>167914</v>
-      </c>
-      <c r="H48" s="2">
-        <v>175223</v>
-      </c>
-      <c r="I48" s="2">
-        <v>342777</v>
-      </c>
-      <c r="J48" s="2">
-        <v>167704</v>
-      </c>
-      <c r="K48" s="2">
-        <v>175073</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -3444,26 +2580,8 @@
       <c r="E49" s="2">
         <v>82332</v>
       </c>
-      <c r="F49" s="2">
-        <v>163741</v>
-      </c>
-      <c r="G49" s="2">
-        <v>81225</v>
-      </c>
-      <c r="H49" s="2">
-        <v>82516</v>
-      </c>
-      <c r="I49" s="2">
-        <v>163545</v>
-      </c>
-      <c r="J49" s="2">
-        <v>81103</v>
-      </c>
-      <c r="K49" s="2">
-        <v>82442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -3479,26 +2597,8 @@
       <c r="E50" s="2">
         <v>71071</v>
       </c>
-      <c r="F50" s="2">
-        <v>135510</v>
-      </c>
-      <c r="G50" s="2">
-        <v>64655</v>
-      </c>
-      <c r="H50" s="2">
-        <v>70855</v>
-      </c>
-      <c r="I50" s="2">
-        <v>135561</v>
-      </c>
-      <c r="J50" s="2">
-        <v>64693</v>
-      </c>
-      <c r="K50" s="2">
-        <v>70868</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
@@ -3514,26 +2614,8 @@
       <c r="E51" s="2">
         <v>209350</v>
       </c>
-      <c r="F51" s="2">
-        <v>414217</v>
-      </c>
-      <c r="G51" s="2">
-        <v>205250</v>
-      </c>
-      <c r="H51" s="2">
-        <v>208967</v>
-      </c>
-      <c r="I51" s="2">
-        <v>413719</v>
-      </c>
-      <c r="J51" s="2">
-        <v>205000</v>
-      </c>
-      <c r="K51" s="2">
-        <v>208719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
@@ -3549,26 +2631,8 @@
       <c r="E52" s="2">
         <v>211967</v>
       </c>
-      <c r="F52" s="2">
-        <v>408932</v>
-      </c>
-      <c r="G52" s="2">
-        <v>196749</v>
-      </c>
-      <c r="H52" s="2">
-        <v>212183</v>
-      </c>
-      <c r="I52" s="2">
-        <v>409044</v>
-      </c>
-      <c r="J52" s="2">
-        <v>196790</v>
-      </c>
-      <c r="K52" s="2">
-        <v>212254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -3584,26 +2648,8 @@
       <c r="E53" s="2">
         <v>267129</v>
       </c>
-      <c r="F53" s="2">
-        <v>523183</v>
-      </c>
-      <c r="G53" s="2">
-        <v>256370</v>
-      </c>
-      <c r="H53" s="2">
-        <v>266813</v>
-      </c>
-      <c r="I53" s="2">
-        <v>522712</v>
-      </c>
-      <c r="J53" s="2">
-        <v>256097</v>
-      </c>
-      <c r="K53" s="2">
-        <v>266615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>45</v>
       </c>
@@ -3619,26 +2665,8 @@
       <c r="E54" s="2">
         <v>127244</v>
       </c>
-      <c r="F54" s="2">
-        <v>257924</v>
-      </c>
-      <c r="G54" s="2">
-        <v>130810</v>
-      </c>
-      <c r="H54" s="2">
-        <v>127114</v>
-      </c>
-      <c r="I54" s="2">
-        <v>257764</v>
-      </c>
-      <c r="J54" s="2">
-        <v>130728</v>
-      </c>
-      <c r="K54" s="2">
-        <v>127036</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>45</v>
       </c>
@@ -3654,26 +2682,8 @@
       <c r="E55" s="2">
         <v>10903</v>
       </c>
-      <c r="F55" s="2">
-        <v>22499</v>
-      </c>
-      <c r="G55" s="2">
-        <v>11626</v>
-      </c>
-      <c r="H55" s="2">
-        <v>10873</v>
-      </c>
-      <c r="I55" s="2">
-        <v>22455</v>
-      </c>
-      <c r="J55" s="2">
-        <v>11610</v>
-      </c>
-      <c r="K55" s="2">
-        <v>10845</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -3689,26 +2699,8 @@
       <c r="E56" s="2">
         <v>1509081</v>
       </c>
-      <c r="F56" s="2">
-        <v>3017928</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1507849</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1510079</v>
-      </c>
-      <c r="I56" s="2">
-        <v>3018589</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1508189</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1510400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>50</v>
       </c>
@@ -3724,26 +2716,8 @@
       <c r="E57" s="2">
         <v>79884</v>
       </c>
-      <c r="F57" s="2">
-        <v>165760</v>
-      </c>
-      <c r="G57" s="2">
-        <v>85688</v>
-      </c>
-      <c r="H57" s="2">
-        <v>80072</v>
-      </c>
-      <c r="I57" s="2">
-        <v>166354</v>
-      </c>
-      <c r="J57" s="2">
-        <v>86001</v>
-      </c>
-      <c r="K57" s="2">
-        <v>80353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
@@ -3759,26 +2733,8 @@
       <c r="E58" s="2">
         <v>0</v>
       </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>50</v>
       </c>
@@ -3794,26 +2750,8 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>50</v>
       </c>
@@ -3829,26 +2767,8 @@
       <c r="E60" s="2">
         <v>29210</v>
       </c>
-      <c r="F60" s="2">
-        <v>58456</v>
-      </c>
-      <c r="G60" s="2">
-        <v>29312</v>
-      </c>
-      <c r="H60" s="2">
-        <v>29144</v>
-      </c>
-      <c r="I60" s="2">
-        <v>58382</v>
-      </c>
-      <c r="J60" s="2">
-        <v>29263</v>
-      </c>
-      <c r="K60" s="2">
-        <v>29119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>50</v>
       </c>
@@ -3864,26 +2784,8 @@
       <c r="E61" s="2">
         <v>204102</v>
       </c>
-      <c r="F61" s="2">
-        <v>411995</v>
-      </c>
-      <c r="G61" s="2">
-        <v>207343</v>
-      </c>
-      <c r="H61" s="2">
-        <v>204652</v>
-      </c>
-      <c r="I61" s="2">
-        <v>412534</v>
-      </c>
-      <c r="J61" s="2">
-        <v>207641</v>
-      </c>
-      <c r="K61" s="2">
-        <v>204893</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>50</v>
       </c>
@@ -3899,26 +2801,8 @@
       <c r="E62" s="2">
         <v>201391</v>
       </c>
-      <c r="F62" s="2">
-        <v>399709</v>
-      </c>
-      <c r="G62" s="2">
-        <v>197915</v>
-      </c>
-      <c r="H62" s="2">
-        <v>201794</v>
-      </c>
-      <c r="I62" s="2">
-        <v>400174</v>
-      </c>
-      <c r="J62" s="2">
-        <v>198119</v>
-      </c>
-      <c r="K62" s="2">
-        <v>202055</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>50</v>
       </c>
@@ -3934,26 +2818,8 @@
       <c r="E63" s="2">
         <v>245550</v>
       </c>
-      <c r="F63" s="2">
-        <v>487125</v>
-      </c>
-      <c r="G63" s="2">
-        <v>241690</v>
-      </c>
-      <c r="H63" s="2">
-        <v>245435</v>
-      </c>
-      <c r="I63" s="2">
-        <v>486663</v>
-      </c>
-      <c r="J63" s="2">
-        <v>241482</v>
-      </c>
-      <c r="K63" s="2">
-        <v>245181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>50</v>
       </c>
@@ -3969,26 +2835,8 @@
       <c r="E64" s="2">
         <v>250710</v>
       </c>
-      <c r="F64" s="2">
-        <v>492755</v>
-      </c>
-      <c r="G64" s="2">
-        <v>242251</v>
-      </c>
-      <c r="H64" s="2">
-        <v>250504</v>
-      </c>
-      <c r="I64" s="2">
-        <v>492193</v>
-      </c>
-      <c r="J64" s="2">
-        <v>241947</v>
-      </c>
-      <c r="K64" s="2">
-        <v>250246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>50</v>
       </c>
@@ -4004,26 +2852,8 @@
       <c r="E65" s="2">
         <v>141342</v>
       </c>
-      <c r="F65" s="2">
-        <v>280863</v>
-      </c>
-      <c r="G65" s="2">
-        <v>139644</v>
-      </c>
-      <c r="H65" s="2">
-        <v>141219</v>
-      </c>
-      <c r="I65" s="2">
-        <v>280623</v>
-      </c>
-      <c r="J65" s="2">
-        <v>139536</v>
-      </c>
-      <c r="K65" s="2">
-        <v>141087</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
@@ -4039,26 +2869,8 @@
       <c r="E66" s="2">
         <v>313803</v>
       </c>
-      <c r="F66" s="2">
-        <v>632041</v>
-      </c>
-      <c r="G66" s="2">
-        <v>317996</v>
-      </c>
-      <c r="H66" s="2">
-        <v>314045</v>
-      </c>
-      <c r="I66" s="2">
-        <v>632347</v>
-      </c>
-      <c r="J66" s="2">
-        <v>318170</v>
-      </c>
-      <c r="K66" s="2">
-        <v>314177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>50</v>
       </c>
@@ -4074,26 +2886,8 @@
       <c r="E67" s="2">
         <v>0</v>
       </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>50</v>
       </c>
@@ -4109,26 +2903,8 @@
       <c r="E68" s="2">
         <v>34424</v>
       </c>
-      <c r="F68" s="2">
-        <v>69152</v>
-      </c>
-      <c r="G68" s="2">
-        <v>34585</v>
-      </c>
-      <c r="H68" s="2">
-        <v>34567</v>
-      </c>
-      <c r="I68" s="2">
-        <v>69299</v>
-      </c>
-      <c r="J68" s="2">
-        <v>34644</v>
-      </c>
-      <c r="K68" s="2">
-        <v>34655</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>50</v>
       </c>
@@ -4144,26 +2920,8 @@
       <c r="E69" s="2">
         <v>8665</v>
       </c>
-      <c r="F69" s="2">
-        <v>20072</v>
-      </c>
-      <c r="G69" s="2">
-        <v>11425</v>
-      </c>
-      <c r="H69" s="2">
-        <v>8647</v>
-      </c>
-      <c r="I69" s="2">
-        <v>20020</v>
-      </c>
-      <c r="J69" s="2">
-        <v>11386</v>
-      </c>
-      <c r="K69" s="2">
-        <v>8634</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>61</v>
       </c>
@@ -4179,26 +2937,8 @@
       <c r="E70" s="2">
         <v>714646</v>
       </c>
-      <c r="F70" s="2">
-        <v>1410548</v>
-      </c>
-      <c r="G70" s="2">
-        <v>696227</v>
-      </c>
-      <c r="H70" s="2">
-        <v>714321</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1409624</v>
-      </c>
-      <c r="J70" s="2">
-        <v>695854</v>
-      </c>
-      <c r="K70" s="2">
-        <v>713770</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>61</v>
       </c>
@@ -4214,26 +2954,8 @@
       <c r="E71" s="2">
         <v>54060</v>
       </c>
-      <c r="F71" s="2">
-        <v>106413</v>
-      </c>
-      <c r="G71" s="2">
-        <v>52301</v>
-      </c>
-      <c r="H71" s="2">
-        <v>54112</v>
-      </c>
-      <c r="I71" s="2">
-        <v>106413</v>
-      </c>
-      <c r="J71" s="2">
-        <v>52308</v>
-      </c>
-      <c r="K71" s="2">
-        <v>54105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
@@ -4249,26 +2971,8 @@
       <c r="E72" s="2">
         <v>143137</v>
       </c>
-      <c r="F72" s="2">
-        <v>279676</v>
-      </c>
-      <c r="G72" s="2">
-        <v>136707</v>
-      </c>
-      <c r="H72" s="2">
-        <v>142969</v>
-      </c>
-      <c r="I72" s="2">
-        <v>279339</v>
-      </c>
-      <c r="J72" s="2">
-        <v>136580</v>
-      </c>
-      <c r="K72" s="2">
-        <v>142759</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>61</v>
       </c>
@@ -4284,26 +2988,8 @@
       <c r="E73" s="2">
         <v>108218</v>
       </c>
-      <c r="F73" s="2">
-        <v>207307</v>
-      </c>
-      <c r="G73" s="2">
-        <v>99099</v>
-      </c>
-      <c r="H73" s="2">
-        <v>108208</v>
-      </c>
-      <c r="I73" s="2">
-        <v>207321</v>
-      </c>
-      <c r="J73" s="2">
-        <v>99124</v>
-      </c>
-      <c r="K73" s="2">
-        <v>108197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>61</v>
       </c>
@@ -4319,26 +3005,8 @@
       <c r="E74" s="2">
         <v>214814</v>
       </c>
-      <c r="F74" s="2">
-        <v>424797</v>
-      </c>
-      <c r="G74" s="2">
-        <v>210029</v>
-      </c>
-      <c r="H74" s="2">
-        <v>214768</v>
-      </c>
-      <c r="I74" s="2">
-        <v>424535</v>
-      </c>
-      <c r="J74" s="2">
-        <v>209881</v>
-      </c>
-      <c r="K74" s="2">
-        <v>214654</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>61</v>
       </c>
@@ -4354,26 +3022,8 @@
       <c r="E75" s="2">
         <v>194417</v>
       </c>
-      <c r="F75" s="2">
-        <v>392355</v>
-      </c>
-      <c r="G75" s="2">
-        <v>198091</v>
-      </c>
-      <c r="H75" s="2">
-        <v>194264</v>
-      </c>
-      <c r="I75" s="2">
-        <v>392016</v>
-      </c>
-      <c r="J75" s="2">
-        <v>197961</v>
-      </c>
-      <c r="K75" s="2">
-        <v>194055</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>63</v>
       </c>
@@ -4389,26 +3039,8 @@
       <c r="E76" s="2">
         <v>722347</v>
       </c>
-      <c r="F76" s="2">
-        <v>1440094</v>
-      </c>
-      <c r="G76" s="2">
-        <v>717893</v>
-      </c>
-      <c r="H76" s="2">
-        <v>722201</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1439687</v>
-      </c>
-      <c r="J76" s="2">
-        <v>717664</v>
-      </c>
-      <c r="K76" s="2">
-        <v>722023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
@@ -4424,26 +3056,8 @@
       <c r="E77" s="2">
         <v>108246</v>
       </c>
-      <c r="F77" s="2">
-        <v>218640</v>
-      </c>
-      <c r="G77" s="2">
-        <v>110087</v>
-      </c>
-      <c r="H77" s="2">
-        <v>108553</v>
-      </c>
-      <c r="I77" s="2">
-        <v>218595</v>
-      </c>
-      <c r="J77" s="2">
-        <v>110023</v>
-      </c>
-      <c r="K77" s="2">
-        <v>108572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>63</v>
       </c>
@@ -4459,26 +3073,8 @@
       <c r="E78" s="2">
         <v>114272</v>
       </c>
-      <c r="F78" s="2">
-        <v>224532</v>
-      </c>
-      <c r="G78" s="2">
-        <v>110142</v>
-      </c>
-      <c r="H78" s="2">
-        <v>114390</v>
-      </c>
-      <c r="I78" s="2">
-        <v>224687</v>
-      </c>
-      <c r="J78" s="2">
-        <v>110206</v>
-      </c>
-      <c r="K78" s="2">
-        <v>114481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>63</v>
       </c>
@@ -4494,26 +3090,8 @@
       <c r="E79" s="2">
         <v>234290</v>
       </c>
-      <c r="F79" s="2">
-        <v>458903</v>
-      </c>
-      <c r="G79" s="2">
-        <v>224989</v>
-      </c>
-      <c r="H79" s="2">
-        <v>233914</v>
-      </c>
-      <c r="I79" s="2">
-        <v>458487</v>
-      </c>
-      <c r="J79" s="2">
-        <v>224767</v>
-      </c>
-      <c r="K79" s="2">
-        <v>233720</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>63</v>
       </c>
@@ -4529,26 +3107,8 @@
       <c r="E80" s="2">
         <v>182301</v>
       </c>
-      <c r="F80" s="2">
-        <v>369311</v>
-      </c>
-      <c r="G80" s="2">
-        <v>187016</v>
-      </c>
-      <c r="H80" s="2">
-        <v>182295</v>
-      </c>
-      <c r="I80" s="2">
-        <v>369483</v>
-      </c>
-      <c r="J80" s="2">
-        <v>187156</v>
-      </c>
-      <c r="K80" s="2">
-        <v>182327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>63</v>
       </c>
@@ -4564,26 +3124,8 @@
       <c r="E81" s="2">
         <v>83238</v>
       </c>
-      <c r="F81" s="2">
-        <v>168708</v>
-      </c>
-      <c r="G81" s="2">
-        <v>85659</v>
-      </c>
-      <c r="H81" s="2">
-        <v>83049</v>
-      </c>
-      <c r="I81" s="2">
-        <v>168435</v>
-      </c>
-      <c r="J81" s="2">
-        <v>85512</v>
-      </c>
-      <c r="K81" s="2">
-        <v>82923</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>66</v>
       </c>
@@ -4599,26 +3141,8 @@
       <c r="E82" s="2">
         <v>533661</v>
       </c>
-      <c r="F82" s="2">
-        <v>1098540</v>
-      </c>
-      <c r="G82" s="2">
-        <v>565011</v>
-      </c>
-      <c r="H82" s="2">
-        <v>533529</v>
-      </c>
-      <c r="I82" s="2">
-        <v>1098312</v>
-      </c>
-      <c r="J82" s="2">
-        <v>564865</v>
-      </c>
-      <c r="K82" s="2">
-        <v>533447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
@@ -4634,26 +3158,8 @@
       <c r="E83" s="2">
         <v>102395</v>
       </c>
-      <c r="F83" s="2">
-        <v>207201</v>
-      </c>
-      <c r="G83" s="2">
-        <v>104856</v>
-      </c>
-      <c r="H83" s="2">
-        <v>102345</v>
-      </c>
-      <c r="I83" s="2">
-        <v>207007</v>
-      </c>
-      <c r="J83" s="2">
-        <v>104742</v>
-      </c>
-      <c r="K83" s="2">
-        <v>102265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>66</v>
       </c>
@@ -4669,26 +3175,8 @@
       <c r="E84" s="2">
         <v>149122</v>
       </c>
-      <c r="F84" s="2">
-        <v>304801</v>
-      </c>
-      <c r="G84" s="2">
-        <v>155694</v>
-      </c>
-      <c r="H84" s="2">
-        <v>149107</v>
-      </c>
-      <c r="I84" s="2">
-        <v>304771</v>
-      </c>
-      <c r="J84" s="2">
-        <v>155633</v>
-      </c>
-      <c r="K84" s="2">
-        <v>149138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>66</v>
       </c>
@@ -4704,26 +3192,8 @@
       <c r="E85" s="2">
         <v>72259</v>
       </c>
-      <c r="F85" s="2">
-        <v>151067</v>
-      </c>
-      <c r="G85" s="2">
-        <v>78815</v>
-      </c>
-      <c r="H85" s="2">
-        <v>72252</v>
-      </c>
-      <c r="I85" s="2">
-        <v>150955</v>
-      </c>
-      <c r="J85" s="2">
-        <v>78761</v>
-      </c>
-      <c r="K85" s="2">
-        <v>72194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>66</v>
       </c>
@@ -4739,26 +3209,8 @@
       <c r="E86" s="2">
         <v>104327</v>
       </c>
-      <c r="F86" s="2">
-        <v>216561</v>
-      </c>
-      <c r="G86" s="2">
-        <v>112271</v>
-      </c>
-      <c r="H86" s="2">
-        <v>104290</v>
-      </c>
-      <c r="I86" s="2">
-        <v>216595</v>
-      </c>
-      <c r="J86" s="2">
-        <v>112282</v>
-      </c>
-      <c r="K86" s="2">
-        <v>104313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>66</v>
       </c>
@@ -4774,26 +3226,8 @@
       <c r="E87" s="2">
         <v>105558</v>
       </c>
-      <c r="F87" s="2">
-        <v>218910</v>
-      </c>
-      <c r="G87" s="2">
-        <v>113375</v>
-      </c>
-      <c r="H87" s="2">
-        <v>105535</v>
-      </c>
-      <c r="I87" s="2">
-        <v>218984</v>
-      </c>
-      <c r="J87" s="2">
-        <v>113447</v>
-      </c>
-      <c r="K87" s="2">
-        <v>105537</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>68</v>
       </c>
@@ -4809,26 +3243,8 @@
       <c r="E88" s="2">
         <v>195589</v>
       </c>
-      <c r="F88" s="2">
-        <v>389978</v>
-      </c>
-      <c r="G88" s="2">
-        <v>194110</v>
-      </c>
-      <c r="H88" s="2">
-        <v>195868</v>
-      </c>
-      <c r="I88" s="2">
-        <v>390603</v>
-      </c>
-      <c r="J88" s="2">
-        <v>194407</v>
-      </c>
-      <c r="K88" s="2">
-        <v>196196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>68</v>
       </c>
@@ -4844,26 +3260,8 @@
       <c r="E89" s="2">
         <v>195589</v>
       </c>
-      <c r="F89" s="2">
-        <v>389978</v>
-      </c>
-      <c r="G89" s="2">
-        <v>194110</v>
-      </c>
-      <c r="H89" s="2">
-        <v>195868</v>
-      </c>
-      <c r="I89" s="2">
-        <v>390603</v>
-      </c>
-      <c r="J89" s="2">
-        <v>194407</v>
-      </c>
-      <c r="K89" s="2">
-        <v>196196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>70</v>
       </c>
@@ -4879,26 +3277,8 @@
       <c r="E90" s="2">
         <v>6803345</v>
       </c>
-      <c r="F90" s="2">
-        <v>13686731</v>
-      </c>
-      <c r="G90" s="2">
-        <v>6879539</v>
-      </c>
-      <c r="H90" s="2">
-        <v>6807192</v>
-      </c>
-      <c r="I90" s="2">
-        <v>13690645</v>
-      </c>
-      <c r="J90" s="2">
-        <v>6880565</v>
-      </c>
-      <c r="K90" s="2">
-        <v>6810080</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>70</v>
       </c>
@@ -4914,26 +3294,8 @@
       <c r="E91" s="2">
         <v>594041</v>
       </c>
-      <c r="F91" s="2">
-        <v>1194006</v>
-      </c>
-      <c r="G91" s="2">
-        <v>600404</v>
-      </c>
-      <c r="H91" s="2">
-        <v>593602</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1193477</v>
-      </c>
-      <c r="J91" s="2">
-        <v>599977</v>
-      </c>
-      <c r="K91" s="2">
-        <v>593500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>70</v>
       </c>
@@ -4949,26 +3311,8 @@
       <c r="E92" s="2">
         <v>136978</v>
       </c>
-      <c r="F92" s="2">
-        <v>274850</v>
-      </c>
-      <c r="G92" s="2">
-        <v>137927</v>
-      </c>
-      <c r="H92" s="2">
-        <v>136923</v>
-      </c>
-      <c r="I92" s="2">
-        <v>274670</v>
-      </c>
-      <c r="J92" s="2">
-        <v>137805</v>
-      </c>
-      <c r="K92" s="2">
-        <v>136865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>70</v>
       </c>
@@ -4984,26 +3328,8 @@
       <c r="E93" s="2">
         <v>179942</v>
       </c>
-      <c r="F93" s="2">
-        <v>363133</v>
-      </c>
-      <c r="G93" s="2">
-        <v>183451</v>
-      </c>
-      <c r="H93" s="2">
-        <v>179682</v>
-      </c>
-      <c r="I93" s="2">
-        <v>362859</v>
-      </c>
-      <c r="J93" s="2">
-        <v>183295</v>
-      </c>
-      <c r="K93" s="2">
-        <v>179564</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>70</v>
       </c>
@@ -5019,26 +3345,8 @@
       <c r="E94" s="2">
         <v>96932</v>
       </c>
-      <c r="F94" s="2">
-        <v>194689</v>
-      </c>
-      <c r="G94" s="2">
-        <v>97921</v>
-      </c>
-      <c r="H94" s="2">
-        <v>96768</v>
-      </c>
-      <c r="I94" s="2">
-        <v>194547</v>
-      </c>
-      <c r="J94" s="2">
-        <v>97827</v>
-      </c>
-      <c r="K94" s="2">
-        <v>96720</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>70</v>
       </c>
@@ -5054,26 +3362,8 @@
       <c r="E95" s="2">
         <v>180189</v>
       </c>
-      <c r="F95" s="2">
-        <v>361334</v>
-      </c>
-      <c r="G95" s="2">
-        <v>181105</v>
-      </c>
-      <c r="H95" s="2">
-        <v>180229</v>
-      </c>
-      <c r="I95" s="2">
-        <v>361401</v>
-      </c>
-      <c r="J95" s="2">
-        <v>181050</v>
-      </c>
-      <c r="K95" s="2">
-        <v>180351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>70</v>
       </c>
@@ -5089,26 +3379,8 @@
       <c r="E96" s="2">
         <v>462237</v>
       </c>
-      <c r="F96" s="2">
-        <v>914234</v>
-      </c>
-      <c r="G96" s="2">
-        <v>452127</v>
-      </c>
-      <c r="H96" s="2">
-        <v>462107</v>
-      </c>
-      <c r="I96" s="2">
-        <v>913781</v>
-      </c>
-      <c r="J96" s="2">
-        <v>451817</v>
-      </c>
-      <c r="K96" s="2">
-        <v>461964</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>70</v>
       </c>
@@ -5124,26 +3396,8 @@
       <c r="E97" s="2">
         <v>116672</v>
       </c>
-      <c r="F97" s="2">
-        <v>235608</v>
-      </c>
-      <c r="G97" s="2">
-        <v>119150</v>
-      </c>
-      <c r="H97" s="2">
-        <v>116458</v>
-      </c>
-      <c r="I97" s="2">
-        <v>235183</v>
-      </c>
-      <c r="J97" s="2">
-        <v>118875</v>
-      </c>
-      <c r="K97" s="2">
-        <v>116308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>70</v>
       </c>
@@ -5159,26 +3413,8 @@
       <c r="E98" s="2">
         <v>103205</v>
       </c>
-      <c r="F98" s="2">
-        <v>207762</v>
-      </c>
-      <c r="G98" s="2">
-        <v>104804</v>
-      </c>
-      <c r="H98" s="2">
-        <v>102958</v>
-      </c>
-      <c r="I98" s="2">
-        <v>207339</v>
-      </c>
-      <c r="J98" s="2">
-        <v>104572</v>
-      </c>
-      <c r="K98" s="2">
-        <v>102767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
         <v>70</v>
       </c>
@@ -5194,26 +3430,8 @@
       <c r="E99" s="2">
         <v>242360</v>
       </c>
-      <c r="F99" s="2">
-        <v>470864</v>
-      </c>
-      <c r="G99" s="2">
-        <v>228173</v>
-      </c>
-      <c r="H99" s="2">
-        <v>242691</v>
-      </c>
-      <c r="I99" s="2">
-        <v>471259</v>
-      </c>
-      <c r="J99" s="2">
-        <v>228370</v>
-      </c>
-      <c r="K99" s="2">
-        <v>242889</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
         <v>70</v>
       </c>
@@ -5229,26 +3447,8 @@
       <c r="E100" s="2">
         <v>234252</v>
       </c>
-      <c r="F100" s="2">
-        <v>460570</v>
-      </c>
-      <c r="G100" s="2">
-        <v>226116</v>
-      </c>
-      <c r="H100" s="2">
-        <v>234454</v>
-      </c>
-      <c r="I100" s="2">
-        <v>461032</v>
-      </c>
-      <c r="J100" s="2">
-        <v>226310</v>
-      </c>
-      <c r="K100" s="2">
-        <v>234722</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
         <v>70</v>
       </c>
@@ -5264,26 +3464,8 @@
       <c r="E101" s="2">
         <v>279353</v>
       </c>
-      <c r="F101" s="2">
-        <v>552911</v>
-      </c>
-      <c r="G101" s="2">
-        <v>272717</v>
-      </c>
-      <c r="H101" s="2">
-        <v>280194</v>
-      </c>
-      <c r="I101" s="2">
-        <v>554641</v>
-      </c>
-      <c r="J101" s="2">
-        <v>273587</v>
-      </c>
-      <c r="K101" s="2">
-        <v>281054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>70</v>
       </c>
@@ -5299,26 +3481,8 @@
       <c r="E102" s="2">
         <v>113959</v>
       </c>
-      <c r="F102" s="2">
-        <v>227399</v>
-      </c>
-      <c r="G102" s="2">
-        <v>113413</v>
-      </c>
-      <c r="H102" s="2">
-        <v>113986</v>
-      </c>
-      <c r="I102" s="2">
-        <v>228730</v>
-      </c>
-      <c r="J102" s="2">
-        <v>114082</v>
-      </c>
-      <c r="K102" s="2">
-        <v>114648</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>70</v>
       </c>
@@ -5334,26 +3498,8 @@
       <c r="E103" s="2">
         <v>165394</v>
       </c>
-      <c r="F103" s="2">
-        <v>325512</v>
-      </c>
-      <c r="G103" s="2">
-        <v>159304</v>
-      </c>
-      <c r="H103" s="2">
-        <v>166208</v>
-      </c>
-      <c r="I103" s="2">
-        <v>325911</v>
-      </c>
-      <c r="J103" s="2">
-        <v>159505</v>
-      </c>
-      <c r="K103" s="2">
-        <v>166406</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>70</v>
       </c>
@@ -5369,26 +3515,8 @@
       <c r="E104" s="2">
         <v>390979</v>
       </c>
-      <c r="F104" s="2">
-        <v>771402</v>
-      </c>
-      <c r="G104" s="2">
-        <v>380838</v>
-      </c>
-      <c r="H104" s="2">
-        <v>390564</v>
-      </c>
-      <c r="I104" s="2">
-        <v>770817</v>
-      </c>
-      <c r="J104" s="2">
-        <v>380509</v>
-      </c>
-      <c r="K104" s="2">
-        <v>390308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>70</v>
       </c>
@@ -5404,26 +3532,8 @@
       <c r="E105" s="2">
         <v>198953</v>
       </c>
-      <c r="F105" s="2">
-        <v>390649</v>
-      </c>
-      <c r="G105" s="2">
-        <v>191904</v>
-      </c>
-      <c r="H105" s="2">
-        <v>198745</v>
-      </c>
-      <c r="I105" s="2">
-        <v>390476</v>
-      </c>
-      <c r="J105" s="2">
-        <v>191772</v>
-      </c>
-      <c r="K105" s="2">
-        <v>198704</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>70</v>
       </c>
@@ -5439,26 +3549,8 @@
       <c r="E106" s="2">
         <v>116393</v>
       </c>
-      <c r="F106" s="2">
-        <v>228296</v>
-      </c>
-      <c r="G106" s="2">
-        <v>112029</v>
-      </c>
-      <c r="H106" s="2">
-        <v>116267</v>
-      </c>
-      <c r="I106" s="2">
-        <v>227955</v>
-      </c>
-      <c r="J106" s="2">
-        <v>111864</v>
-      </c>
-      <c r="K106" s="2">
-        <v>116091</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>70</v>
       </c>
@@ -5474,26 +3566,8 @@
       <c r="E107" s="2">
         <v>75633</v>
       </c>
-      <c r="F107" s="2">
-        <v>152457</v>
-      </c>
-      <c r="G107" s="2">
-        <v>76905</v>
-      </c>
-      <c r="H107" s="2">
-        <v>75552</v>
-      </c>
-      <c r="I107" s="2">
-        <v>152386</v>
-      </c>
-      <c r="J107" s="2">
-        <v>76873</v>
-      </c>
-      <c r="K107" s="2">
-        <v>75513</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>70</v>
       </c>
@@ -5509,26 +3583,8 @@
       <c r="E108" s="2">
         <v>141553</v>
       </c>
-      <c r="F108" s="2">
-        <v>277281</v>
-      </c>
-      <c r="G108" s="2">
-        <v>135874</v>
-      </c>
-      <c r="H108" s="2">
-        <v>141407</v>
-      </c>
-      <c r="I108" s="2">
-        <v>277744</v>
-      </c>
-      <c r="J108" s="2">
-        <v>136082</v>
-      </c>
-      <c r="K108" s="2">
-        <v>141662</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>70</v>
       </c>
@@ -5544,26 +3600,8 @@
       <c r="E109" s="2">
         <v>283131</v>
       </c>
-      <c r="F109" s="2">
-        <v>597046</v>
-      </c>
-      <c r="G109" s="2">
-        <v>313527</v>
-      </c>
-      <c r="H109" s="2">
-        <v>283519</v>
-      </c>
-      <c r="I109" s="2">
-        <v>597734</v>
-      </c>
-      <c r="J109" s="2">
-        <v>313799</v>
-      </c>
-      <c r="K109" s="2">
-        <v>283935</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>70</v>
       </c>
@@ -5579,26 +3617,8 @@
       <c r="E110" s="2">
         <v>0</v>
       </c>
-      <c r="F110" s="2">
-        <v>0</v>
-      </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2">
-        <v>0</v>
-      </c>
-      <c r="K110" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>70</v>
       </c>
@@ -5614,26 +3634,8 @@
       <c r="E111" s="2">
         <v>0</v>
       </c>
-      <c r="F111" s="2">
-        <v>0</v>
-      </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2">
-        <v>0</v>
-      </c>
-      <c r="K111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>70</v>
       </c>
@@ -5649,26 +3651,8 @@
       <c r="E112" s="2">
         <v>43711</v>
       </c>
-      <c r="F112" s="2">
-        <v>86927</v>
-      </c>
-      <c r="G112" s="2">
-        <v>43287</v>
-      </c>
-      <c r="H112" s="2">
-        <v>43640</v>
-      </c>
-      <c r="I112" s="2">
-        <v>86889</v>
-      </c>
-      <c r="J112" s="2">
-        <v>43274</v>
-      </c>
-      <c r="K112" s="2">
-        <v>43615</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>70</v>
       </c>
@@ -5684,26 +3668,8 @@
       <c r="E113" s="2">
         <v>303948</v>
       </c>
-      <c r="F113" s="2">
-        <v>622136</v>
-      </c>
-      <c r="G113" s="2">
-        <v>318668</v>
-      </c>
-      <c r="H113" s="2">
-        <v>303468</v>
-      </c>
-      <c r="I113" s="2">
-        <v>621550</v>
-      </c>
-      <c r="J113" s="2">
-        <v>318324</v>
-      </c>
-      <c r="K113" s="2">
-        <v>303226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>70</v>
       </c>
@@ -5719,26 +3685,8 @@
       <c r="E114" s="2">
         <v>160976</v>
       </c>
-      <c r="F114" s="2">
-        <v>328123</v>
-      </c>
-      <c r="G114" s="2">
-        <v>167477</v>
-      </c>
-      <c r="H114" s="2">
-        <v>160646</v>
-      </c>
-      <c r="I114" s="2">
-        <v>327697</v>
-      </c>
-      <c r="J114" s="2">
-        <v>167252</v>
-      </c>
-      <c r="K114" s="2">
-        <v>160445</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>70</v>
       </c>
@@ -5754,26 +3702,8 @@
       <c r="E115" s="2">
         <v>142972</v>
       </c>
-      <c r="F115" s="2">
-        <v>294013</v>
-      </c>
-      <c r="G115" s="2">
-        <v>151191</v>
-      </c>
-      <c r="H115" s="2">
-        <v>142822</v>
-      </c>
-      <c r="I115" s="2">
-        <v>293853</v>
-      </c>
-      <c r="J115" s="2">
-        <v>151072</v>
-      </c>
-      <c r="K115" s="2">
-        <v>142781</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>70</v>
       </c>
@@ -5789,26 +3719,8 @@
       <c r="E116" s="2">
         <v>549157</v>
       </c>
-      <c r="F116" s="2">
-        <v>1071244</v>
-      </c>
-      <c r="G116" s="2">
-        <v>522144</v>
-      </c>
-      <c r="H116" s="2">
-        <v>549100</v>
-      </c>
-      <c r="I116" s="2">
-        <v>1070671</v>
-      </c>
-      <c r="J116" s="2">
-        <v>521865</v>
-      </c>
-      <c r="K116" s="2">
-        <v>548806</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
         <v>70</v>
       </c>
@@ -5824,26 +3736,8 @@
       <c r="E117" s="2">
         <v>251235</v>
       </c>
-      <c r="F117" s="2">
-        <v>493814</v>
-      </c>
-      <c r="G117" s="2">
-        <v>242454</v>
-      </c>
-      <c r="H117" s="2">
-        <v>251360</v>
-      </c>
-      <c r="I117" s="2">
-        <v>493411</v>
-      </c>
-      <c r="J117" s="2">
-        <v>242252</v>
-      </c>
-      <c r="K117" s="2">
-        <v>251159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>70</v>
       </c>
@@ -5859,26 +3753,8 @@
       <c r="E118" s="2">
         <v>151550</v>
       </c>
-      <c r="F118" s="2">
-        <v>294229</v>
-      </c>
-      <c r="G118" s="2">
-        <v>142791</v>
-      </c>
-      <c r="H118" s="2">
-        <v>151438</v>
-      </c>
-      <c r="I118" s="2">
-        <v>294197</v>
-      </c>
-      <c r="J118" s="2">
-        <v>142788</v>
-      </c>
-      <c r="K118" s="2">
-        <v>151409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>70</v>
       </c>
@@ -5894,26 +3770,8 @@
       <c r="E119" s="2">
         <v>146372</v>
       </c>
-      <c r="F119" s="2">
-        <v>283201</v>
-      </c>
-      <c r="G119" s="2">
-        <v>136899</v>
-      </c>
-      <c r="H119" s="2">
-        <v>146302</v>
-      </c>
-      <c r="I119" s="2">
-        <v>283063</v>
-      </c>
-      <c r="J119" s="2">
-        <v>136825</v>
-      </c>
-      <c r="K119" s="2">
-        <v>146238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>70</v>
       </c>
@@ -5929,26 +3787,8 @@
       <c r="E120" s="2">
         <v>43666</v>
       </c>
-      <c r="F120" s="2">
-        <v>85489</v>
-      </c>
-      <c r="G120" s="2">
-        <v>41788</v>
-      </c>
-      <c r="H120" s="2">
-        <v>43701</v>
-      </c>
-      <c r="I120" s="2">
-        <v>85527</v>
-      </c>
-      <c r="J120" s="2">
-        <v>41779</v>
-      </c>
-      <c r="K120" s="2">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>70</v>
       </c>
@@ -5964,26 +3804,8 @@
       <c r="E121" s="2">
         <v>94293</v>
       </c>
-      <c r="F121" s="2">
-        <v>186745</v>
-      </c>
-      <c r="G121" s="2">
-        <v>92374</v>
-      </c>
-      <c r="H121" s="2">
-        <v>94371</v>
-      </c>
-      <c r="I121" s="2">
-        <v>186775</v>
-      </c>
-      <c r="J121" s="2">
-        <v>92386</v>
-      </c>
-      <c r="K121" s="2">
-        <v>94389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>70</v>
       </c>
@@ -5999,26 +3821,8 @@
       <c r="E122" s="2">
         <v>369750</v>
       </c>
-      <c r="F122" s="2">
-        <v>732899</v>
-      </c>
-      <c r="G122" s="2">
-        <v>363031</v>
-      </c>
-      <c r="H122" s="2">
-        <v>369868</v>
-      </c>
-      <c r="I122" s="2">
-        <v>732586</v>
-      </c>
-      <c r="J122" s="2">
-        <v>362787</v>
-      </c>
-      <c r="K122" s="2">
-        <v>369799</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>70</v>
       </c>
@@ -6034,26 +3838,8 @@
       <c r="E123" s="2">
         <v>0</v>
       </c>
-      <c r="F123" s="2">
-        <v>0</v>
-      </c>
-      <c r="G123" s="2">
-        <v>0</v>
-      </c>
-      <c r="H123" s="2">
-        <v>0</v>
-      </c>
-      <c r="I123" s="2">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2">
-        <v>0</v>
-      </c>
-      <c r="K123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>70</v>
       </c>
@@ -6069,26 +3855,8 @@
       <c r="E124" s="2">
         <v>114197</v>
       </c>
-      <c r="F124" s="2">
-        <v>239657</v>
-      </c>
-      <c r="G124" s="2">
-        <v>124999</v>
-      </c>
-      <c r="H124" s="2">
-        <v>114658</v>
-      </c>
-      <c r="I124" s="2">
-        <v>241295</v>
-      </c>
-      <c r="J124" s="2">
-        <v>125848</v>
-      </c>
-      <c r="K124" s="2">
-        <v>115447</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>70</v>
       </c>
@@ -6104,26 +3872,8 @@
       <c r="E125" s="2">
         <v>248157</v>
       </c>
-      <c r="F125" s="2">
-        <v>518622</v>
-      </c>
-      <c r="G125" s="2">
-        <v>270348</v>
-      </c>
-      <c r="H125" s="2">
-        <v>248274</v>
-      </c>
-      <c r="I125" s="2">
-        <v>518586</v>
-      </c>
-      <c r="J125" s="2">
-        <v>270288</v>
-      </c>
-      <c r="K125" s="2">
-        <v>248298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>70</v>
       </c>
@@ -6139,26 +3889,8 @@
       <c r="E126" s="2">
         <v>129733</v>
       </c>
-      <c r="F126" s="2">
-        <v>256883</v>
-      </c>
-      <c r="G126" s="2">
-        <v>127455</v>
-      </c>
-      <c r="H126" s="2">
-        <v>129428</v>
-      </c>
-      <c r="I126" s="2">
-        <v>256407</v>
-      </c>
-      <c r="J126" s="2">
-        <v>127233</v>
-      </c>
-      <c r="K126" s="2">
-        <v>129174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>70</v>
       </c>
@@ -6174,26 +3906,8 @@
       <c r="E127" s="2">
         <v>78195</v>
       </c>
-      <c r="F127" s="2">
-        <v>154700</v>
-      </c>
-      <c r="G127" s="2">
-        <v>76601</v>
-      </c>
-      <c r="H127" s="2">
-        <v>78099</v>
-      </c>
-      <c r="I127" s="2">
-        <v>154671</v>
-      </c>
-      <c r="J127" s="2">
-        <v>76592</v>
-      </c>
-      <c r="K127" s="2">
-        <v>78079</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>70</v>
       </c>
@@ -6209,26 +3923,8 @@
       <c r="E128" s="2">
         <v>165739</v>
       </c>
-      <c r="F128" s="2">
-        <v>329498</v>
-      </c>
-      <c r="G128" s="2">
-        <v>163780</v>
-      </c>
-      <c r="H128" s="2">
-        <v>165718</v>
-      </c>
-      <c r="I128" s="2">
-        <v>329341</v>
-      </c>
-      <c r="J128" s="2">
-        <v>163724</v>
-      </c>
-      <c r="K128" s="2">
-        <v>165617</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>70</v>
       </c>
@@ -6244,26 +3940,8 @@
       <c r="E129" s="2">
         <v>547025</v>
       </c>
-      <c r="F129" s="2">
-        <v>1085343</v>
-      </c>
-      <c r="G129" s="2">
-        <v>537884</v>
-      </c>
-      <c r="H129" s="2">
-        <v>547459</v>
-      </c>
-      <c r="I129" s="2">
-        <v>1084524</v>
-      </c>
-      <c r="J129" s="2">
-        <v>537355</v>
-      </c>
-      <c r="K129" s="2">
-        <v>547169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>70</v>
       </c>
@@ -6279,26 +3957,8 @@
       <c r="E130" s="2">
         <v>132547</v>
       </c>
-      <c r="F130" s="2">
-        <v>273263</v>
-      </c>
-      <c r="G130" s="2">
-        <v>140100</v>
-      </c>
-      <c r="H130" s="2">
-        <v>133163</v>
-      </c>
-      <c r="I130" s="2">
-        <v>272772</v>
-      </c>
-      <c r="J130" s="2">
-        <v>139728</v>
-      </c>
-      <c r="K130" s="2">
-        <v>133044</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>70</v>
       </c>
@@ -6314,26 +3974,8 @@
       <c r="E131" s="2">
         <v>221657</v>
       </c>
-      <c r="F131" s="2">
-        <v>436668</v>
-      </c>
-      <c r="G131" s="2">
-        <v>215140</v>
-      </c>
-      <c r="H131" s="2">
-        <v>221528</v>
-      </c>
-      <c r="I131" s="2">
-        <v>436475</v>
-      </c>
-      <c r="J131" s="2">
-        <v>215015</v>
-      </c>
-      <c r="K131" s="2">
-        <v>221460</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>70</v>
       </c>
@@ -6349,26 +3991,8 @@
       <c r="E132" s="2">
         <v>192821</v>
       </c>
-      <c r="F132" s="2">
-        <v>375412</v>
-      </c>
-      <c r="G132" s="2">
-        <v>182644</v>
-      </c>
-      <c r="H132" s="2">
-        <v>192768</v>
-      </c>
-      <c r="I132" s="2">
-        <v>375277</v>
-      </c>
-      <c r="J132" s="2">
-        <v>182612</v>
-      </c>
-      <c r="K132" s="2">
-        <v>192665</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>70</v>
       </c>
@@ -6384,26 +4008,8 @@
       <c r="E133" s="2">
         <v>251674</v>
       </c>
-      <c r="F133" s="2">
-        <v>509337</v>
-      </c>
-      <c r="G133" s="2">
-        <v>257356</v>
-      </c>
-      <c r="H133" s="2">
-        <v>251981</v>
-      </c>
-      <c r="I133" s="2">
-        <v>510140</v>
-      </c>
-      <c r="J133" s="2">
-        <v>257695</v>
-      </c>
-      <c r="K133" s="2">
-        <v>252445</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>70</v>
       </c>
@@ -6419,26 +4025,8 @@
       <c r="E134" s="2">
         <v>106935</v>
       </c>
-      <c r="F134" s="2">
-        <v>223312</v>
-      </c>
-      <c r="G134" s="2">
-        <v>116470</v>
-      </c>
-      <c r="H134" s="2">
-        <v>106842</v>
-      </c>
-      <c r="I134" s="2">
-        <v>222623</v>
-      </c>
-      <c r="J134" s="2">
-        <v>116073</v>
-      </c>
-      <c r="K134" s="2">
-        <v>106550</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>70</v>
       </c>
@@ -6454,26 +4042,8 @@
       <c r="E135" s="2">
         <v>93375</v>
       </c>
-      <c r="F135" s="2">
-        <v>193454</v>
-      </c>
-      <c r="G135" s="2">
-        <v>99950</v>
-      </c>
-      <c r="H135" s="2">
-        <v>93504</v>
-      </c>
-      <c r="I135" s="2">
-        <v>193612</v>
-      </c>
-      <c r="J135" s="2">
-        <v>100033</v>
-      </c>
-      <c r="K135" s="2">
-        <v>93579</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>70</v>
       </c>
@@ -6489,26 +4059,8 @@
       <c r="E136" s="2">
         <v>243484</v>
       </c>
-      <c r="F136" s="2">
-        <v>486553</v>
-      </c>
-      <c r="G136" s="2">
-        <v>242856</v>
-      </c>
-      <c r="H136" s="2">
-        <v>243697</v>
-      </c>
-      <c r="I136" s="2">
-        <v>486905</v>
-      </c>
-      <c r="J136" s="2">
-        <v>243045</v>
-      </c>
-      <c r="K136" s="2">
-        <v>243860</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="6" t="s">
         <v>70</v>
       </c>
@@ -6524,26 +4076,8 @@
       <c r="E137" s="2">
         <v>462463</v>
       </c>
-      <c r="F137" s="2">
-        <v>965040</v>
-      </c>
-      <c r="G137" s="2">
-        <v>500987</v>
-      </c>
-      <c r="H137" s="2">
-        <v>464053</v>
-      </c>
-      <c r="I137" s="2">
-        <v>966831</v>
-      </c>
-      <c r="J137" s="2">
-        <v>501915</v>
-      </c>
-      <c r="K137" s="2">
-        <v>464916</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="6" t="s">
         <v>70</v>
       </c>
@@ -6559,26 +4093,8 @@
       <c r="E138" s="2">
         <v>0</v>
       </c>
-      <c r="F138" s="2">
-        <v>0</v>
-      </c>
-      <c r="G138" s="2">
-        <v>0</v>
-      </c>
-      <c r="H138" s="2">
-        <v>0</v>
-      </c>
-      <c r="I138" s="2">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2">
-        <v>0</v>
-      </c>
-      <c r="K138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="6" t="s">
         <v>70</v>
       </c>
@@ -6594,26 +4110,8 @@
       <c r="E139" s="2">
         <v>0</v>
       </c>
-      <c r="F139" s="2">
-        <v>0</v>
-      </c>
-      <c r="G139" s="2">
-        <v>0</v>
-      </c>
-      <c r="H139" s="2">
-        <v>0</v>
-      </c>
-      <c r="I139" s="2">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2">
-        <v>0</v>
-      </c>
-      <c r="K139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="6" t="s">
         <v>70</v>
       </c>
@@ -6629,26 +4127,8 @@
       <c r="E140" s="2">
         <v>194235</v>
       </c>
-      <c r="F140" s="2">
-        <v>397269</v>
-      </c>
-      <c r="G140" s="2">
-        <v>202500</v>
-      </c>
-      <c r="H140" s="2">
-        <v>194769</v>
-      </c>
-      <c r="I140" s="2">
-        <v>397756</v>
-      </c>
-      <c r="J140" s="2">
-        <v>202724</v>
-      </c>
-      <c r="K140" s="2">
-        <v>195032</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="6" t="s">
         <v>70</v>
       </c>
@@ -6664,26 +4144,8 @@
       <c r="E141" s="2">
         <v>141972</v>
       </c>
-      <c r="F141" s="2">
-        <v>287320</v>
-      </c>
-      <c r="G141" s="2">
-        <v>144680</v>
-      </c>
-      <c r="H141" s="2">
-        <v>142640</v>
-      </c>
-      <c r="I141" s="2">
-        <v>288273</v>
-      </c>
-      <c r="J141" s="2">
-        <v>145123</v>
-      </c>
-      <c r="K141" s="2">
-        <v>143150</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="6" t="s">
         <v>70</v>
       </c>
@@ -6699,26 +4161,8 @@
       <c r="E142" s="2">
         <v>66800</v>
       </c>
-      <c r="F142" s="2">
-        <v>141587</v>
-      </c>
-      <c r="G142" s="2">
-        <v>74892</v>
-      </c>
-      <c r="H142" s="2">
-        <v>66695</v>
-      </c>
-      <c r="I142" s="2">
-        <v>141572</v>
-      </c>
-      <c r="J142" s="2">
-        <v>74848</v>
-      </c>
-      <c r="K142" s="2">
-        <v>66724</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="6" t="s">
         <v>70</v>
       </c>
@@ -6734,26 +4178,8 @@
       <c r="E143" s="2">
         <v>56334</v>
       </c>
-      <c r="F143" s="2">
-        <v>114836</v>
-      </c>
-      <c r="G143" s="2">
-        <v>58467</v>
-      </c>
-      <c r="H143" s="2">
-        <v>56369</v>
-      </c>
-      <c r="I143" s="2">
-        <v>114751</v>
-      </c>
-      <c r="J143" s="2">
-        <v>58412</v>
-      </c>
-      <c r="K143" s="2">
-        <v>56339</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
         <v>70</v>
       </c>
@@ -6769,26 +4195,8 @@
       <c r="E144" s="2">
         <v>19458</v>
       </c>
-      <c r="F144" s="2">
-        <v>40863</v>
-      </c>
-      <c r="G144" s="2">
-        <v>21405</v>
-      </c>
-      <c r="H144" s="2">
-        <v>19458</v>
-      </c>
-      <c r="I144" s="2">
-        <v>40804</v>
-      </c>
-      <c r="J144" s="2">
-        <v>21361</v>
-      </c>
-      <c r="K144" s="2">
-        <v>19443</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
         <v>70</v>
       </c>
@@ -6804,26 +4212,8 @@
       <c r="E145" s="2">
         <v>30296</v>
       </c>
-      <c r="F145" s="2">
-        <v>62497</v>
-      </c>
-      <c r="G145" s="2">
-        <v>32189</v>
-      </c>
-      <c r="H145" s="2">
-        <v>30308</v>
-      </c>
-      <c r="I145" s="2">
-        <v>62505</v>
-      </c>
-      <c r="J145" s="2">
-        <v>32182</v>
-      </c>
-      <c r="K145" s="2">
-        <v>30323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="6" t="s">
         <v>70</v>
       </c>
@@ -6839,26 +4229,8 @@
       <c r="E146" s="2">
         <v>63202</v>
       </c>
-      <c r="F146" s="2">
-        <v>127070</v>
-      </c>
-      <c r="G146" s="2">
-        <v>63825</v>
-      </c>
-      <c r="H146" s="2">
-        <v>63245</v>
-      </c>
-      <c r="I146" s="2">
-        <v>126825</v>
-      </c>
-      <c r="J146" s="2">
-        <v>63618</v>
-      </c>
-      <c r="K146" s="2">
-        <v>63207</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>127</v>
       </c>
@@ -6874,26 +4246,8 @@
       <c r="E147" s="2">
         <v>755859</v>
       </c>
-      <c r="F147" s="2">
-        <v>1519545</v>
-      </c>
-      <c r="G147" s="2">
-        <v>764109</v>
-      </c>
-      <c r="H147" s="2">
-        <v>755436</v>
-      </c>
-      <c r="I147" s="2">
-        <v>1518700</v>
-      </c>
-      <c r="J147" s="2">
-        <v>763577</v>
-      </c>
-      <c r="K147" s="2">
-        <v>755123</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="6" t="s">
         <v>127</v>
       </c>
@@ -6909,26 +4263,8 @@
       <c r="E148" s="2">
         <v>144850</v>
       </c>
-      <c r="F148" s="2">
-        <v>285986</v>
-      </c>
-      <c r="G148" s="2">
-        <v>141198</v>
-      </c>
-      <c r="H148" s="2">
-        <v>144788</v>
-      </c>
-      <c r="I148" s="2">
-        <v>286110</v>
-      </c>
-      <c r="J148" s="2">
-        <v>141263</v>
-      </c>
-      <c r="K148" s="2">
-        <v>144847</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="6" t="s">
         <v>127</v>
       </c>
@@ -6944,26 +4280,8 @@
       <c r="E149" s="2">
         <v>182789</v>
       </c>
-      <c r="F149" s="2">
-        <v>362132</v>
-      </c>
-      <c r="G149" s="2">
-        <v>179255</v>
-      </c>
-      <c r="H149" s="2">
-        <v>182877</v>
-      </c>
-      <c r="I149" s="2">
-        <v>362213</v>
-      </c>
-      <c r="J149" s="2">
-        <v>179295</v>
-      </c>
-      <c r="K149" s="2">
-        <v>182918</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="6" t="s">
         <v>127</v>
       </c>
@@ -6979,26 +4297,8 @@
       <c r="E150" s="2">
         <v>104986</v>
       </c>
-      <c r="F150" s="2">
-        <v>207988</v>
-      </c>
-      <c r="G150" s="2">
-        <v>103082</v>
-      </c>
-      <c r="H150" s="2">
-        <v>104906</v>
-      </c>
-      <c r="I150" s="2">
-        <v>207737</v>
-      </c>
-      <c r="J150" s="2">
-        <v>102911</v>
-      </c>
-      <c r="K150" s="2">
-        <v>104826</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
         <v>127</v>
       </c>
@@ -7014,26 +4314,8 @@
       <c r="E151" s="2">
         <v>43207</v>
       </c>
-      <c r="F151" s="2">
-        <v>87737</v>
-      </c>
-      <c r="G151" s="2">
-        <v>44543</v>
-      </c>
-      <c r="H151" s="2">
-        <v>43194</v>
-      </c>
-      <c r="I151" s="2">
-        <v>87716</v>
-      </c>
-      <c r="J151" s="2">
-        <v>44528</v>
-      </c>
-      <c r="K151" s="2">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="6" t="s">
         <v>127</v>
       </c>
@@ -7049,26 +4331,8 @@
       <c r="E152" s="2">
         <v>18863</v>
       </c>
-      <c r="F152" s="2">
-        <v>38043</v>
-      </c>
-      <c r="G152" s="2">
-        <v>19221</v>
-      </c>
-      <c r="H152" s="2">
-        <v>18822</v>
-      </c>
-      <c r="I152" s="2">
-        <v>37997</v>
-      </c>
-      <c r="J152" s="2">
-        <v>19197</v>
-      </c>
-      <c r="K152" s="2">
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="6" t="s">
         <v>127</v>
       </c>
@@ -7084,26 +4348,8 @@
       <c r="E153" s="2">
         <v>41086</v>
       </c>
-      <c r="F153" s="2">
-        <v>81128</v>
-      </c>
-      <c r="G153" s="2">
-        <v>40046</v>
-      </c>
-      <c r="H153" s="2">
-        <v>41082</v>
-      </c>
-      <c r="I153" s="2">
-        <v>81025</v>
-      </c>
-      <c r="J153" s="2">
-        <v>39986</v>
-      </c>
-      <c r="K153" s="2">
-        <v>41039</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="6" t="s">
         <v>127</v>
       </c>
@@ -7119,26 +4365,8 @@
       <c r="E154" s="2">
         <v>30484</v>
       </c>
-      <c r="F154" s="2">
-        <v>61993</v>
-      </c>
-      <c r="G154" s="2">
-        <v>31582</v>
-      </c>
-      <c r="H154" s="2">
-        <v>30411</v>
-      </c>
-      <c r="I154" s="2">
-        <v>61952</v>
-      </c>
-      <c r="J154" s="2">
-        <v>31542</v>
-      </c>
-      <c r="K154" s="2">
-        <v>30410</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="6" t="s">
         <v>127</v>
       </c>
@@ -7154,26 +4382,8 @@
       <c r="E155" s="2">
         <v>32474</v>
       </c>
-      <c r="F155" s="2">
-        <v>66929</v>
-      </c>
-      <c r="G155" s="2">
-        <v>34534</v>
-      </c>
-      <c r="H155" s="2">
-        <v>32395</v>
-      </c>
-      <c r="I155" s="2">
-        <v>66810</v>
-      </c>
-      <c r="J155" s="2">
-        <v>34469</v>
-      </c>
-      <c r="K155" s="2">
-        <v>32341</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="6" t="s">
         <v>127</v>
       </c>
@@ -7189,26 +4399,8 @@
       <c r="E156" s="2">
         <v>22483</v>
       </c>
-      <c r="F156" s="2">
-        <v>46234</v>
-      </c>
-      <c r="G156" s="2">
-        <v>23767</v>
-      </c>
-      <c r="H156" s="2">
-        <v>22467</v>
-      </c>
-      <c r="I156" s="2">
-        <v>46160</v>
-      </c>
-      <c r="J156" s="2">
-        <v>23721</v>
-      </c>
-      <c r="K156" s="2">
-        <v>22439</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
         <v>127</v>
       </c>
@@ -7224,26 +4416,8 @@
       <c r="E157" s="2">
         <v>17846</v>
       </c>
-      <c r="F157" s="2">
-        <v>36899</v>
-      </c>
-      <c r="G157" s="2">
-        <v>19080</v>
-      </c>
-      <c r="H157" s="2">
-        <v>17819</v>
-      </c>
-      <c r="I157" s="2">
-        <v>36820</v>
-      </c>
-      <c r="J157" s="2">
-        <v>19037</v>
-      </c>
-      <c r="K157" s="2">
-        <v>17783</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="6" t="s">
         <v>127</v>
       </c>
@@ -7259,26 +4433,8 @@
       <c r="E158" s="2">
         <v>19485</v>
       </c>
-      <c r="F158" s="2">
-        <v>40428</v>
-      </c>
-      <c r="G158" s="2">
-        <v>20966</v>
-      </c>
-      <c r="H158" s="2">
-        <v>19462</v>
-      </c>
-      <c r="I158" s="2">
-        <v>40387</v>
-      </c>
-      <c r="J158" s="2">
-        <v>20954</v>
-      </c>
-      <c r="K158" s="2">
-        <v>19433</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6" t="s">
         <v>127</v>
       </c>
@@ -7294,26 +4450,8 @@
       <c r="E159" s="2">
         <v>16103</v>
       </c>
-      <c r="F159" s="2">
-        <v>33609</v>
-      </c>
-      <c r="G159" s="2">
-        <v>17522</v>
-      </c>
-      <c r="H159" s="2">
-        <v>16087</v>
-      </c>
-      <c r="I159" s="2">
-        <v>33583</v>
-      </c>
-      <c r="J159" s="2">
-        <v>17511</v>
-      </c>
-      <c r="K159" s="2">
-        <v>16072</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
         <v>127</v>
       </c>
@@ -7329,26 +4467,8 @@
       <c r="E160" s="2">
         <v>19629</v>
       </c>
-      <c r="F160" s="2">
-        <v>40612</v>
-      </c>
-      <c r="G160" s="2">
-        <v>20989</v>
-      </c>
-      <c r="H160" s="2">
-        <v>19623</v>
-      </c>
-      <c r="I160" s="2">
-        <v>40540</v>
-      </c>
-      <c r="J160" s="2">
-        <v>20955</v>
-      </c>
-      <c r="K160" s="2">
-        <v>19585</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
         <v>127</v>
       </c>
@@ -7364,26 +4484,8 @@
       <c r="E161" s="2">
         <v>10679</v>
       </c>
-      <c r="F161" s="2">
-        <v>22980</v>
-      </c>
-      <c r="G161" s="2">
-        <v>12309</v>
-      </c>
-      <c r="H161" s="2">
-        <v>10671</v>
-      </c>
-      <c r="I161" s="2">
-        <v>22975</v>
-      </c>
-      <c r="J161" s="2">
-        <v>12307</v>
-      </c>
-      <c r="K161" s="2">
-        <v>10668</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="6" t="s">
         <v>127</v>
       </c>
@@ -7399,26 +4501,8 @@
       <c r="E162" s="2">
         <v>9884</v>
       </c>
-      <c r="F162" s="2">
-        <v>20695</v>
-      </c>
-      <c r="G162" s="2">
-        <v>10821</v>
-      </c>
-      <c r="H162" s="2">
-        <v>9874</v>
-      </c>
-      <c r="I162" s="2">
-        <v>20631</v>
-      </c>
-      <c r="J162" s="2">
-        <v>10781</v>
-      </c>
-      <c r="K162" s="2">
-        <v>9850</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="6" t="s">
         <v>127</v>
       </c>
@@ -7434,26 +4518,8 @@
       <c r="E163" s="2">
         <v>14376</v>
       </c>
-      <c r="F163" s="2">
-        <v>31587</v>
-      </c>
-      <c r="G163" s="2">
-        <v>17226</v>
-      </c>
-      <c r="H163" s="2">
-        <v>14361</v>
-      </c>
-      <c r="I163" s="2">
-        <v>31532</v>
-      </c>
-      <c r="J163" s="2">
-        <v>17180</v>
-      </c>
-      <c r="K163" s="2">
-        <v>14352</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="6" t="s">
         <v>127</v>
       </c>
@@ -7469,26 +4535,8 @@
       <c r="E164" s="2">
         <v>13194</v>
       </c>
-      <c r="F164" s="2">
-        <v>27016</v>
-      </c>
-      <c r="G164" s="2">
-        <v>13841</v>
-      </c>
-      <c r="H164" s="2">
-        <v>13175</v>
-      </c>
-      <c r="I164" s="2">
-        <v>27027</v>
-      </c>
-      <c r="J164" s="2">
-        <v>13853</v>
-      </c>
-      <c r="K164" s="2">
-        <v>13174</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="6" t="s">
         <v>127</v>
       </c>
@@ -7504,26 +4552,8 @@
       <c r="E165" s="2">
         <v>13441</v>
       </c>
-      <c r="F165" s="2">
-        <v>27549</v>
-      </c>
-      <c r="G165" s="2">
-        <v>14127</v>
-      </c>
-      <c r="H165" s="2">
-        <v>13422</v>
-      </c>
-      <c r="I165" s="2">
-        <v>27485</v>
-      </c>
-      <c r="J165" s="2">
-        <v>14087</v>
-      </c>
-      <c r="K165" s="2">
-        <v>13398</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="166" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>146</v>
       </c>
@@ -7539,26 +4569,8 @@
       <c r="E166" s="2">
         <v>781281</v>
       </c>
-      <c r="F166" s="2">
-        <v>1590704</v>
-      </c>
-      <c r="G166" s="2">
-        <v>809530</v>
-      </c>
-      <c r="H166" s="2">
-        <v>781174</v>
-      </c>
-      <c r="I166" s="2">
-        <v>1591100</v>
-      </c>
-      <c r="J166" s="2">
-        <v>809697</v>
-      </c>
-      <c r="K166" s="2">
-        <v>781403</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="6" t="s">
         <v>146</v>
       </c>
@@ -7574,26 +4586,8 @@
       <c r="E167" s="2">
         <v>422506</v>
       </c>
-      <c r="F167" s="2">
-        <v>854001</v>
-      </c>
-      <c r="G167" s="2">
-        <v>431456</v>
-      </c>
-      <c r="H167" s="2">
-        <v>422545</v>
-      </c>
-      <c r="I167" s="2">
-        <v>854370</v>
-      </c>
-      <c r="J167" s="2">
-        <v>431609</v>
-      </c>
-      <c r="K167" s="2">
-        <v>422761</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="168" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="6" t="s">
         <v>146</v>
       </c>
@@ -7609,26 +4603,8 @@
       <c r="E168" s="2">
         <v>100021</v>
       </c>
-      <c r="F168" s="2">
-        <v>198431</v>
-      </c>
-      <c r="G168" s="2">
-        <v>98500</v>
-      </c>
-      <c r="H168" s="2">
-        <v>99931</v>
-      </c>
-      <c r="I168" s="2">
-        <v>198153</v>
-      </c>
-      <c r="J168" s="2">
-        <v>98346</v>
-      </c>
-      <c r="K168" s="2">
-        <v>99807</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
         <v>146</v>
       </c>
@@ -7644,26 +4620,8 @@
       <c r="E169" s="2">
         <v>91681</v>
       </c>
-      <c r="F169" s="2">
-        <v>182385</v>
-      </c>
-      <c r="G169" s="2">
-        <v>90828</v>
-      </c>
-      <c r="H169" s="2">
-        <v>91557</v>
-      </c>
-      <c r="I169" s="2">
-        <v>182032</v>
-      </c>
-      <c r="J169" s="2">
-        <v>90636</v>
-      </c>
-      <c r="K169" s="2">
-        <v>91396</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="6" t="s">
         <v>146</v>
       </c>
@@ -7679,26 +4637,8 @@
       <c r="E170" s="2">
         <v>138883</v>
       </c>
-      <c r="F170" s="2">
-        <v>283654</v>
-      </c>
-      <c r="G170" s="2">
-        <v>144509</v>
-      </c>
-      <c r="H170" s="2">
-        <v>139145</v>
-      </c>
-      <c r="I170" s="2">
-        <v>284978</v>
-      </c>
-      <c r="J170" s="2">
-        <v>145189</v>
-      </c>
-      <c r="K170" s="2">
-        <v>139789</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="6" t="s">
         <v>146</v>
       </c>
@@ -7714,26 +4654,8 @@
       <c r="E171" s="2">
         <v>91921</v>
       </c>
-      <c r="F171" s="2">
-        <v>189531</v>
-      </c>
-      <c r="G171" s="2">
-        <v>97619</v>
-      </c>
-      <c r="H171" s="2">
-        <v>91912</v>
-      </c>
-      <c r="I171" s="2">
-        <v>189207</v>
-      </c>
-      <c r="J171" s="2">
-        <v>97438</v>
-      </c>
-      <c r="K171" s="2">
-        <v>91769</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
         <v>146</v>
       </c>
@@ -7749,26 +4671,8 @@
       <c r="E172" s="2">
         <v>102166</v>
       </c>
-      <c r="F172" s="2">
-        <v>207318</v>
-      </c>
-      <c r="G172" s="2">
-        <v>105175</v>
-      </c>
-      <c r="H172" s="2">
-        <v>102143</v>
-      </c>
-      <c r="I172" s="2">
-        <v>207324</v>
-      </c>
-      <c r="J172" s="2">
-        <v>105197</v>
-      </c>
-      <c r="K172" s="2">
-        <v>102127</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="6" t="s">
         <v>146</v>
       </c>
@@ -7784,26 +4688,8 @@
       <c r="E173" s="2">
         <v>64048</v>
       </c>
-      <c r="F173" s="2">
-        <v>128897</v>
-      </c>
-      <c r="G173" s="2">
-        <v>64923</v>
-      </c>
-      <c r="H173" s="2">
-        <v>63974</v>
-      </c>
-      <c r="I173" s="2">
-        <v>128725</v>
-      </c>
-      <c r="J173" s="2">
-        <v>64813</v>
-      </c>
-      <c r="K173" s="2">
-        <v>63912</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="6" t="s">
         <v>146</v>
       </c>
@@ -7819,26 +4705,8 @@
       <c r="E174" s="2">
         <v>15090</v>
       </c>
-      <c r="F174" s="2">
-        <v>30584</v>
-      </c>
-      <c r="G174" s="2">
-        <v>15526</v>
-      </c>
-      <c r="H174" s="2">
-        <v>15058</v>
-      </c>
-      <c r="I174" s="2">
-        <v>30567</v>
-      </c>
-      <c r="J174" s="2">
-        <v>15521</v>
-      </c>
-      <c r="K174" s="2">
-        <v>15046</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="6" t="s">
         <v>146</v>
       </c>
@@ -7854,26 +4722,8 @@
       <c r="E175" s="2">
         <v>23933</v>
       </c>
-      <c r="F175" s="2">
-        <v>48332</v>
-      </c>
-      <c r="G175" s="2">
-        <v>24441</v>
-      </c>
-      <c r="H175" s="2">
-        <v>23891</v>
-      </c>
-      <c r="I175" s="2">
-        <v>48294</v>
-      </c>
-      <c r="J175" s="2">
-        <v>24427</v>
-      </c>
-      <c r="K175" s="2">
-        <v>23867</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="6" t="s">
         <v>146</v>
       </c>
@@ -7889,26 +4739,8 @@
       <c r="E176" s="2">
         <v>21711</v>
       </c>
-      <c r="F176" s="2">
-        <v>43638</v>
-      </c>
-      <c r="G176" s="2">
-        <v>21955</v>
-      </c>
-      <c r="H176" s="2">
-        <v>21683</v>
-      </c>
-      <c r="I176" s="2">
-        <v>43597</v>
-      </c>
-      <c r="J176" s="2">
-        <v>21948</v>
-      </c>
-      <c r="K176" s="2">
-        <v>21649</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
         <v>146</v>
       </c>
@@ -7924,26 +4756,8 @@
       <c r="E177" s="2">
         <v>17829</v>
       </c>
-      <c r="F177" s="2">
-        <v>37262</v>
-      </c>
-      <c r="G177" s="2">
-        <v>19406</v>
-      </c>
-      <c r="H177" s="2">
-        <v>17856</v>
-      </c>
-      <c r="I177" s="2">
-        <v>37215</v>
-      </c>
-      <c r="J177" s="2">
-        <v>19378</v>
-      </c>
-      <c r="K177" s="2">
-        <v>17837</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>146</v>
       </c>
@@ -7959,26 +4773,8 @@
       <c r="E178" s="2">
         <v>40896</v>
       </c>
-      <c r="F178" s="2">
-        <v>86685</v>
-      </c>
-      <c r="G178" s="2">
-        <v>45808</v>
-      </c>
-      <c r="H178" s="2">
-        <v>40877</v>
-      </c>
-      <c r="I178" s="2">
-        <v>86534</v>
-      </c>
-      <c r="J178" s="2">
-        <v>45706</v>
-      </c>
-      <c r="K178" s="2">
-        <v>40828</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
         <v>146</v>
       </c>
@@ -7994,26 +4790,8 @@
       <c r="E179" s="2">
         <v>17388</v>
       </c>
-      <c r="F179" s="2">
-        <v>36006</v>
-      </c>
-      <c r="G179" s="2">
-        <v>18636</v>
-      </c>
-      <c r="H179" s="2">
-        <v>17370</v>
-      </c>
-      <c r="I179" s="2">
-        <v>36072</v>
-      </c>
-      <c r="J179" s="2">
-        <v>18656</v>
-      </c>
-      <c r="K179" s="2">
-        <v>17416</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
         <v>146</v>
       </c>
@@ -8029,26 +4807,8 @@
       <c r="E180" s="2">
         <v>42278</v>
       </c>
-      <c r="F180" s="2">
-        <v>90554</v>
-      </c>
-      <c r="G180" s="2">
-        <v>48210</v>
-      </c>
-      <c r="H180" s="2">
-        <v>42344</v>
-      </c>
-      <c r="I180" s="2">
-        <v>90977</v>
-      </c>
-      <c r="J180" s="2">
-        <v>48447</v>
-      </c>
-      <c r="K180" s="2">
-        <v>42530</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
         <v>146</v>
       </c>
@@ -8064,26 +4824,8 @@
       <c r="E181" s="2">
         <v>13436</v>
       </c>
-      <c r="F181" s="2">
-        <v>27427</v>
-      </c>
-      <c r="G181" s="2">
-        <v>13994</v>
-      </c>
-      <c r="H181" s="2">
-        <v>13433</v>
-      </c>
-      <c r="I181" s="2">
-        <v>27425</v>
-      </c>
-      <c r="J181" s="2">
-        <v>13995</v>
-      </c>
-      <c r="K181" s="2">
-        <v>13430</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>162</v>
       </c>
@@ -8099,26 +4841,8 @@
       <c r="E182" s="2">
         <v>1039981</v>
       </c>
-      <c r="F182" s="2">
-        <v>2136010</v>
-      </c>
-      <c r="G182" s="2">
-        <v>1095772</v>
-      </c>
-      <c r="H182" s="2">
-        <v>1040238</v>
-      </c>
-      <c r="I182" s="2">
-        <v>2136632</v>
-      </c>
-      <c r="J182" s="2">
-        <v>1096190</v>
-      </c>
-      <c r="K182" s="2">
-        <v>1040442</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
         <v>162</v>
       </c>
@@ -8134,26 +4858,8 @@
       <c r="E183" s="2">
         <v>320830</v>
       </c>
-      <c r="F183" s="2">
-        <v>659286</v>
-      </c>
-      <c r="G183" s="2">
-        <v>338294</v>
-      </c>
-      <c r="H183" s="2">
-        <v>320992</v>
-      </c>
-      <c r="I183" s="2">
-        <v>659800</v>
-      </c>
-      <c r="J183" s="2">
-        <v>338574</v>
-      </c>
-      <c r="K183" s="2">
-        <v>321226</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>162</v>
       </c>
@@ -8169,26 +4875,8 @@
       <c r="E184" s="2">
         <v>128432</v>
       </c>
-      <c r="F184" s="2">
-        <v>260720</v>
-      </c>
-      <c r="G184" s="2">
-        <v>132255</v>
-      </c>
-      <c r="H184" s="2">
-        <v>128465</v>
-      </c>
-      <c r="I184" s="2">
-        <v>261076</v>
-      </c>
-      <c r="J184" s="2">
-        <v>132452</v>
-      </c>
-      <c r="K184" s="2">
-        <v>128624</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
         <v>162</v>
       </c>
@@ -8204,26 +4892,8 @@
       <c r="E185" s="2">
         <v>192398</v>
       </c>
-      <c r="F185" s="2">
-        <v>398566</v>
-      </c>
-      <c r="G185" s="2">
-        <v>206039</v>
-      </c>
-      <c r="H185" s="2">
-        <v>192527</v>
-      </c>
-      <c r="I185" s="2">
-        <v>398724</v>
-      </c>
-      <c r="J185" s="2">
-        <v>206122</v>
-      </c>
-      <c r="K185" s="2">
-        <v>192602</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
         <v>162</v>
       </c>
@@ -8239,26 +4909,8 @@
       <c r="E186" s="2">
         <v>50974</v>
       </c>
-      <c r="F186" s="2">
-        <v>101579</v>
-      </c>
-      <c r="G186" s="2">
-        <v>50686</v>
-      </c>
-      <c r="H186" s="2">
-        <v>50893</v>
-      </c>
-      <c r="I186" s="2">
-        <v>101441</v>
-      </c>
-      <c r="J186" s="2">
-        <v>50633</v>
-      </c>
-      <c r="K186" s="2">
-        <v>50808</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>162</v>
       </c>
@@ -8274,26 +4926,8 @@
       <c r="E187" s="2">
         <v>46473</v>
       </c>
-      <c r="F187" s="2">
-        <v>94021</v>
-      </c>
-      <c r="G187" s="2">
-        <v>47632</v>
-      </c>
-      <c r="H187" s="2">
-        <v>46389</v>
-      </c>
-      <c r="I187" s="2">
-        <v>93914</v>
-      </c>
-      <c r="J187" s="2">
-        <v>47565</v>
-      </c>
-      <c r="K187" s="2">
-        <v>46349</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
         <v>162</v>
       </c>
@@ -8309,26 +4943,8 @@
       <c r="E188" s="2">
         <v>169237</v>
       </c>
-      <c r="F188" s="2">
-        <v>354170</v>
-      </c>
-      <c r="G188" s="2">
-        <v>184618</v>
-      </c>
-      <c r="H188" s="2">
-        <v>169552</v>
-      </c>
-      <c r="I188" s="2">
-        <v>354507</v>
-      </c>
-      <c r="J188" s="2">
-        <v>184831</v>
-      </c>
-      <c r="K188" s="2">
-        <v>169676</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
         <v>162</v>
       </c>
@@ -8344,26 +4960,8 @@
       <c r="E189" s="2">
         <v>83414</v>
       </c>
-      <c r="F189" s="2">
-        <v>174834</v>
-      </c>
-      <c r="G189" s="2">
-        <v>91538</v>
-      </c>
-      <c r="H189" s="2">
-        <v>83296</v>
-      </c>
-      <c r="I189" s="2">
-        <v>174656</v>
-      </c>
-      <c r="J189" s="2">
-        <v>91423</v>
-      </c>
-      <c r="K189" s="2">
-        <v>83233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>162</v>
       </c>
@@ -8379,26 +4977,8 @@
       <c r="E190" s="2">
         <v>54392</v>
       </c>
-      <c r="F190" s="2">
-        <v>108758</v>
-      </c>
-      <c r="G190" s="2">
-        <v>54449</v>
-      </c>
-      <c r="H190" s="2">
-        <v>54309</v>
-      </c>
-      <c r="I190" s="2">
-        <v>108658</v>
-      </c>
-      <c r="J190" s="2">
-        <v>54416</v>
-      </c>
-      <c r="K190" s="2">
-        <v>54242</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
         <v>162</v>
       </c>
@@ -8414,26 +4994,8 @@
       <c r="E191" s="2">
         <v>23419</v>
       </c>
-      <c r="F191" s="2">
-        <v>46622</v>
-      </c>
-      <c r="G191" s="2">
-        <v>23243</v>
-      </c>
-      <c r="H191" s="2">
-        <v>23379</v>
-      </c>
-      <c r="I191" s="2">
-        <v>46624</v>
-      </c>
-      <c r="J191" s="2">
-        <v>23235</v>
-      </c>
-      <c r="K191" s="2">
-        <v>23389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>162</v>
       </c>
@@ -8449,26 +5011,8 @@
       <c r="E192" s="2">
         <v>79500</v>
       </c>
-      <c r="F192" s="2">
-        <v>171581</v>
-      </c>
-      <c r="G192" s="2">
-        <v>91918</v>
-      </c>
-      <c r="H192" s="2">
-        <v>79663</v>
-      </c>
-      <c r="I192" s="2">
-        <v>171825</v>
-      </c>
-      <c r="J192" s="2">
-        <v>92057</v>
-      </c>
-      <c r="K192" s="2">
-        <v>79768</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>162</v>
       </c>
@@ -8484,26 +5028,8 @@
       <c r="E193" s="2">
         <v>24549</v>
       </c>
-      <c r="F193" s="2">
-        <v>49663</v>
-      </c>
-      <c r="G193" s="2">
-        <v>25152</v>
-      </c>
-      <c r="H193" s="2">
-        <v>24511</v>
-      </c>
-      <c r="I193" s="2">
-        <v>49622</v>
-      </c>
-      <c r="J193" s="2">
-        <v>25149</v>
-      </c>
-      <c r="K193" s="2">
-        <v>24473</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
         <v>162</v>
       </c>
@@ -8519,26 +5045,8 @@
       <c r="E194" s="2">
         <v>30025</v>
       </c>
-      <c r="F194" s="2">
-        <v>59727</v>
-      </c>
-      <c r="G194" s="2">
-        <v>29743</v>
-      </c>
-      <c r="H194" s="2">
-        <v>29984</v>
-      </c>
-      <c r="I194" s="2">
-        <v>59638</v>
-      </c>
-      <c r="J194" s="2">
-        <v>29705</v>
-      </c>
-      <c r="K194" s="2">
-        <v>29933</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>162</v>
       </c>
@@ -8554,26 +5062,8 @@
       <c r="E195" s="2">
         <v>24451</v>
       </c>
-      <c r="F195" s="2">
-        <v>48340</v>
-      </c>
-      <c r="G195" s="2">
-        <v>23963</v>
-      </c>
-      <c r="H195" s="2">
-        <v>24377</v>
-      </c>
-      <c r="I195" s="2">
-        <v>48289</v>
-      </c>
-      <c r="J195" s="2">
-        <v>23946</v>
-      </c>
-      <c r="K195" s="2">
-        <v>24343</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>162</v>
       </c>
@@ -8589,26 +5079,8 @@
       <c r="E196" s="2">
         <v>14488</v>
       </c>
-      <c r="F196" s="2">
-        <v>29664</v>
-      </c>
-      <c r="G196" s="2">
-        <v>15188</v>
-      </c>
-      <c r="H196" s="2">
-        <v>14476</v>
-      </c>
-      <c r="I196" s="2">
-        <v>29646</v>
-      </c>
-      <c r="J196" s="2">
-        <v>15183</v>
-      </c>
-      <c r="K196" s="2">
-        <v>14463</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
         <v>162</v>
       </c>
@@ -8624,26 +5096,8 @@
       <c r="E197" s="2">
         <v>49504</v>
       </c>
-      <c r="F197" s="2">
-        <v>99050</v>
-      </c>
-      <c r="G197" s="2">
-        <v>49453</v>
-      </c>
-      <c r="H197" s="2">
-        <v>49597</v>
-      </c>
-      <c r="I197" s="2">
-        <v>99133</v>
-      </c>
-      <c r="J197" s="2">
-        <v>49483</v>
-      </c>
-      <c r="K197" s="2">
-        <v>49650</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>162</v>
       </c>
@@ -8659,26 +5113,8 @@
       <c r="E198" s="2">
         <v>38942</v>
       </c>
-      <c r="F198" s="2">
-        <v>78412</v>
-      </c>
-      <c r="G198" s="2">
-        <v>39370</v>
-      </c>
-      <c r="H198" s="2">
-        <v>39042</v>
-      </c>
-      <c r="I198" s="2">
-        <v>78655</v>
-      </c>
-      <c r="J198" s="2">
-        <v>39491</v>
-      </c>
-      <c r="K198" s="2">
-        <v>39164</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>162</v>
       </c>
@@ -8694,26 +5130,8 @@
       <c r="E199" s="2">
         <v>29783</v>
       </c>
-      <c r="F199" s="2">
-        <v>60303</v>
-      </c>
-      <c r="G199" s="2">
-        <v>30525</v>
-      </c>
-      <c r="H199" s="2">
-        <v>29778</v>
-      </c>
-      <c r="I199" s="2">
-        <v>60224</v>
-      </c>
-      <c r="J199" s="2">
-        <v>30499</v>
-      </c>
-      <c r="K199" s="2">
-        <v>29725</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>180</v>
       </c>
@@ -8729,26 +5147,8 @@
       <c r="E200" s="2">
         <v>874405</v>
       </c>
-      <c r="F200" s="2">
-        <v>1740753</v>
-      </c>
-      <c r="G200" s="2">
-        <v>866902</v>
-      </c>
-      <c r="H200" s="2">
-        <v>873851</v>
-      </c>
-      <c r="I200" s="2">
-        <v>1739751</v>
-      </c>
-      <c r="J200" s="2">
-        <v>866399</v>
-      </c>
-      <c r="K200" s="2">
-        <v>873352</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>180</v>
       </c>
@@ -8764,26 +5164,8 @@
       <c r="E201" s="2">
         <v>324850</v>
       </c>
-      <c r="F201" s="2">
-        <v>637318</v>
-      </c>
-      <c r="G201" s="2">
-        <v>312877</v>
-      </c>
-      <c r="H201" s="2">
-        <v>324441</v>
-      </c>
-      <c r="I201" s="2">
-        <v>636721</v>
-      </c>
-      <c r="J201" s="2">
-        <v>312544</v>
-      </c>
-      <c r="K201" s="2">
-        <v>324177</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>180</v>
       </c>
@@ -8799,26 +5181,8 @@
       <c r="E202" s="2">
         <v>166397</v>
       </c>
-      <c r="F202" s="2">
-        <v>322934</v>
-      </c>
-      <c r="G202" s="2">
-        <v>156678</v>
-      </c>
-      <c r="H202" s="2">
-        <v>166256</v>
-      </c>
-      <c r="I202" s="2">
-        <v>322533</v>
-      </c>
-      <c r="J202" s="2">
-        <v>156431</v>
-      </c>
-      <c r="K202" s="2">
-        <v>166102</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>180</v>
       </c>
@@ -8834,26 +5198,8 @@
       <c r="E203" s="2">
         <v>158453</v>
       </c>
-      <c r="F203" s="2">
-        <v>314384</v>
-      </c>
-      <c r="G203" s="2">
-        <v>156199</v>
-      </c>
-      <c r="H203" s="2">
-        <v>158185</v>
-      </c>
-      <c r="I203" s="2">
-        <v>314188</v>
-      </c>
-      <c r="J203" s="2">
-        <v>156113</v>
-      </c>
-      <c r="K203" s="2">
-        <v>158075</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>180</v>
       </c>
@@ -8869,26 +5215,8 @@
       <c r="E204" s="2">
         <v>127332</v>
       </c>
-      <c r="F204" s="2">
-        <v>258224</v>
-      </c>
-      <c r="G204" s="2">
-        <v>130945</v>
-      </c>
-      <c r="H204" s="2">
-        <v>127279</v>
-      </c>
-      <c r="I204" s="2">
-        <v>258175</v>
-      </c>
-      <c r="J204" s="2">
-        <v>130948</v>
-      </c>
-      <c r="K204" s="2">
-        <v>127227</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>180</v>
       </c>
@@ -8904,26 +5232,8 @@
       <c r="E205" s="2">
         <v>134420</v>
       </c>
-      <c r="F205" s="2">
-        <v>267887</v>
-      </c>
-      <c r="G205" s="2">
-        <v>133356</v>
-      </c>
-      <c r="H205" s="2">
-        <v>134531</v>
-      </c>
-      <c r="I205" s="2">
-        <v>268058</v>
-      </c>
-      <c r="J205" s="2">
-        <v>133418</v>
-      </c>
-      <c r="K205" s="2">
-        <v>134640</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>180</v>
       </c>
@@ -8939,26 +5249,8 @@
       <c r="E206" s="2">
         <v>51310</v>
       </c>
-      <c r="F206" s="2">
-        <v>102246</v>
-      </c>
-      <c r="G206" s="2">
-        <v>51033</v>
-      </c>
-      <c r="H206" s="2">
-        <v>51213</v>
-      </c>
-      <c r="I206" s="2">
-        <v>102091</v>
-      </c>
-      <c r="J206" s="2">
-        <v>50964</v>
-      </c>
-      <c r="K206" s="2">
-        <v>51127</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>180</v>
       </c>
@@ -8974,26 +5266,8 @@
       <c r="E207" s="2">
         <v>38496</v>
       </c>
-      <c r="F207" s="2">
-        <v>75573</v>
-      </c>
-      <c r="G207" s="2">
-        <v>37112</v>
-      </c>
-      <c r="H207" s="2">
-        <v>38461</v>
-      </c>
-      <c r="I207" s="2">
-        <v>75539</v>
-      </c>
-      <c r="J207" s="2">
-        <v>37081</v>
-      </c>
-      <c r="K207" s="2">
-        <v>38458</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>180</v>
       </c>
@@ -9009,26 +5283,8 @@
       <c r="E208" s="2">
         <v>40322</v>
       </c>
-      <c r="F208" s="2">
-        <v>80615</v>
-      </c>
-      <c r="G208" s="2">
-        <v>40336</v>
-      </c>
-      <c r="H208" s="2">
-        <v>40279</v>
-      </c>
-      <c r="I208" s="2">
-        <v>80507</v>
-      </c>
-      <c r="J208" s="2">
-        <v>40287</v>
-      </c>
-      <c r="K208" s="2">
-        <v>40220</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>180</v>
       </c>
@@ -9044,26 +5300,8 @@
       <c r="E209" s="2">
         <v>48203</v>
       </c>
-      <c r="F209" s="2">
-        <v>99078</v>
-      </c>
-      <c r="G209" s="2">
-        <v>50859</v>
-      </c>
-      <c r="H209" s="2">
-        <v>48219</v>
-      </c>
-      <c r="I209" s="2">
-        <v>99105</v>
-      </c>
-      <c r="J209" s="2">
-        <v>50888</v>
-      </c>
-      <c r="K209" s="2">
-        <v>48217</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
         <v>180</v>
       </c>
@@ -9079,26 +5317,8 @@
       <c r="E210" s="2">
         <v>11871</v>
       </c>
-      <c r="F210" s="2">
-        <v>24246</v>
-      </c>
-      <c r="G210" s="2">
-        <v>12396</v>
-      </c>
-      <c r="H210" s="2">
-        <v>11850</v>
-      </c>
-      <c r="I210" s="2">
-        <v>24209</v>
-      </c>
-      <c r="J210" s="2">
-        <v>12375</v>
-      </c>
-      <c r="K210" s="2">
-        <v>11834</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>180</v>
       </c>
@@ -9114,26 +5334,8 @@
       <c r="E211" s="2">
         <v>11501</v>
       </c>
-      <c r="F211" s="2">
-        <v>23108</v>
-      </c>
-      <c r="G211" s="2">
-        <v>11602</v>
-      </c>
-      <c r="H211" s="2">
-        <v>11506</v>
-      </c>
-      <c r="I211" s="2">
-        <v>23066</v>
-      </c>
-      <c r="J211" s="2">
-        <v>11585</v>
-      </c>
-      <c r="K211" s="2">
-        <v>11481</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="6" t="s">
         <v>180</v>
       </c>
@@ -9149,26 +5351,8 @@
       <c r="E212" s="2">
         <v>10336</v>
       </c>
-      <c r="F212" s="2">
-        <v>20732</v>
-      </c>
-      <c r="G212" s="2">
-        <v>10412</v>
-      </c>
-      <c r="H212" s="2">
-        <v>10320</v>
-      </c>
-      <c r="I212" s="2">
-        <v>20699</v>
-      </c>
-      <c r="J212" s="2">
-        <v>10391</v>
-      </c>
-      <c r="K212" s="2">
-        <v>10308</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="6" t="s">
         <v>180</v>
       </c>
@@ -9184,26 +5368,8 @@
       <c r="E213" s="2">
         <v>12431</v>
       </c>
-      <c r="F213" s="2">
-        <v>25629</v>
-      </c>
-      <c r="G213" s="2">
-        <v>13224</v>
-      </c>
-      <c r="H213" s="2">
-        <v>12405</v>
-      </c>
-      <c r="I213" s="2">
-        <v>25604</v>
-      </c>
-      <c r="J213" s="2">
-        <v>13210</v>
-      </c>
-      <c r="K213" s="2">
-        <v>12394</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>180</v>
       </c>
@@ -9219,26 +5385,8 @@
       <c r="E214" s="2">
         <v>13608</v>
       </c>
-      <c r="F214" s="2">
-        <v>26764</v>
-      </c>
-      <c r="G214" s="2">
-        <v>13169</v>
-      </c>
-      <c r="H214" s="2">
-        <v>13595</v>
-      </c>
-      <c r="I214" s="2">
-        <v>26756</v>
-      </c>
-      <c r="J214" s="2">
-        <v>13168</v>
-      </c>
-      <c r="K214" s="2">
-        <v>13588</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
         <v>180</v>
       </c>
@@ -9254,26 +5402,8 @@
       <c r="E215" s="2">
         <v>25543</v>
       </c>
-      <c r="F215" s="2">
-        <v>51114</v>
-      </c>
-      <c r="G215" s="2">
-        <v>25509</v>
-      </c>
-      <c r="H215" s="2">
-        <v>25605</v>
-      </c>
-      <c r="I215" s="2">
-        <v>51070</v>
-      </c>
-      <c r="J215" s="2">
-        <v>25499</v>
-      </c>
-      <c r="K215" s="2">
-        <v>25571</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>180</v>
       </c>
@@ -9289,26 +5419,8 @@
       <c r="E216" s="2">
         <v>24182</v>
       </c>
-      <c r="F216" s="2">
-        <v>48219</v>
-      </c>
-      <c r="G216" s="2">
-        <v>24072</v>
-      </c>
-      <c r="H216" s="2">
-        <v>24147</v>
-      </c>
-      <c r="I216" s="2">
-        <v>48151</v>
-      </c>
-      <c r="J216" s="2">
-        <v>24041</v>
-      </c>
-      <c r="K216" s="2">
-        <v>24110</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="3" t="s">
         <v>197</v>
       </c>
@@ -9324,26 +5436,8 @@
       <c r="E217" s="2">
         <v>887827</v>
       </c>
-      <c r="F217" s="2">
-        <v>1790421</v>
-      </c>
-      <c r="G217" s="2">
-        <v>903270</v>
-      </c>
-      <c r="H217" s="2">
-        <v>887151</v>
-      </c>
-      <c r="I217" s="2">
-        <v>1789610</v>
-      </c>
-      <c r="J217" s="2">
-        <v>902758</v>
-      </c>
-      <c r="K217" s="2">
-        <v>886852</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
         <v>197</v>
       </c>
@@ -9359,26 +5453,8 @@
       <c r="E218" s="2">
         <v>106037</v>
       </c>
-      <c r="F218" s="2">
-        <v>210491</v>
-      </c>
-      <c r="G218" s="2">
-        <v>104642</v>
-      </c>
-      <c r="H218" s="2">
-        <v>105849</v>
-      </c>
-      <c r="I218" s="2">
-        <v>210261</v>
-      </c>
-      <c r="J218" s="2">
-        <v>104514</v>
-      </c>
-      <c r="K218" s="2">
-        <v>105747</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>197</v>
       </c>
@@ -9394,26 +5470,8 @@
       <c r="E219" s="2">
         <v>131968</v>
       </c>
-      <c r="F219" s="2">
-        <v>268522</v>
-      </c>
-      <c r="G219" s="2">
-        <v>136708</v>
-      </c>
-      <c r="H219" s="2">
-        <v>131814</v>
-      </c>
-      <c r="I219" s="2">
-        <v>268120</v>
-      </c>
-      <c r="J219" s="2">
-        <v>136456</v>
-      </c>
-      <c r="K219" s="2">
-        <v>131664</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>197</v>
       </c>
@@ -9429,26 +5487,8 @@
       <c r="E220" s="2">
         <v>138366</v>
       </c>
-      <c r="F220" s="2">
-        <v>276148</v>
-      </c>
-      <c r="G220" s="2">
-        <v>137888</v>
-      </c>
-      <c r="H220" s="2">
-        <v>138260</v>
-      </c>
-      <c r="I220" s="2">
-        <v>276126</v>
-      </c>
-      <c r="J220" s="2">
-        <v>137894</v>
-      </c>
-      <c r="K220" s="2">
-        <v>138232</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
         <v>197</v>
       </c>
@@ -9464,26 +5504,8 @@
       <c r="E221" s="2">
         <v>57843</v>
       </c>
-      <c r="F221" s="2">
-        <v>116752</v>
-      </c>
-      <c r="G221" s="2">
-        <v>58983</v>
-      </c>
-      <c r="H221" s="2">
-        <v>57769</v>
-      </c>
-      <c r="I221" s="2">
-        <v>116704</v>
-      </c>
-      <c r="J221" s="2">
-        <v>58912</v>
-      </c>
-      <c r="K221" s="2">
-        <v>57792</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>197</v>
       </c>
@@ -9499,26 +5521,8 @@
       <c r="E222" s="2">
         <v>73414</v>
       </c>
-      <c r="F222" s="2">
-        <v>154376</v>
-      </c>
-      <c r="G222" s="2">
-        <v>80929</v>
-      </c>
-      <c r="H222" s="2">
-        <v>73447</v>
-      </c>
-      <c r="I222" s="2">
-        <v>154592</v>
-      </c>
-      <c r="J222" s="2">
-        <v>81044</v>
-      </c>
-      <c r="K222" s="2">
-        <v>73548</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>197</v>
       </c>
@@ -9534,26 +5538,8 @@
       <c r="E223" s="2">
         <v>22206</v>
       </c>
-      <c r="F223" s="2">
-        <v>44678</v>
-      </c>
-      <c r="G223" s="2">
-        <v>22548</v>
-      </c>
-      <c r="H223" s="2">
-        <v>22130</v>
-      </c>
-      <c r="I223" s="2">
-        <v>44655</v>
-      </c>
-      <c r="J223" s="2">
-        <v>22528</v>
-      </c>
-      <c r="K223" s="2">
-        <v>22127</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>197</v>
       </c>
@@ -9569,26 +5555,8 @@
       <c r="E224" s="2">
         <v>13402</v>
       </c>
-      <c r="F224" s="2">
-        <v>26630</v>
-      </c>
-      <c r="G224" s="2">
-        <v>13226</v>
-      </c>
-      <c r="H224" s="2">
-        <v>13404</v>
-      </c>
-      <c r="I224" s="2">
-        <v>26590</v>
-      </c>
-      <c r="J224" s="2">
-        <v>13200</v>
-      </c>
-      <c r="K224" s="2">
-        <v>13390</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>197</v>
       </c>
@@ -9604,26 +5572,8 @@
       <c r="E225" s="2">
         <v>12301</v>
       </c>
-      <c r="F225" s="2">
-        <v>24060</v>
-      </c>
-      <c r="G225" s="2">
-        <v>11764</v>
-      </c>
-      <c r="H225" s="2">
-        <v>12296</v>
-      </c>
-      <c r="I225" s="2">
-        <v>24047</v>
-      </c>
-      <c r="J225" s="2">
-        <v>11750</v>
-      </c>
-      <c r="K225" s="2">
-        <v>12297</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>197</v>
       </c>
@@ -9639,26 +5589,8 @@
       <c r="E226" s="2">
         <v>30740</v>
       </c>
-      <c r="F226" s="2">
-        <v>60332</v>
-      </c>
-      <c r="G226" s="2">
-        <v>29630</v>
-      </c>
-      <c r="H226" s="2">
-        <v>30702</v>
-      </c>
-      <c r="I226" s="2">
-        <v>60273</v>
-      </c>
-      <c r="J226" s="2">
-        <v>29606</v>
-      </c>
-      <c r="K226" s="2">
-        <v>30667</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>197</v>
       </c>
@@ -9674,26 +5606,8 @@
       <c r="E227" s="2">
         <v>18935</v>
       </c>
-      <c r="F227" s="2">
-        <v>37099</v>
-      </c>
-      <c r="G227" s="2">
-        <v>18213</v>
-      </c>
-      <c r="H227" s="2">
-        <v>18886</v>
-      </c>
-      <c r="I227" s="2">
-        <v>37070</v>
-      </c>
-      <c r="J227" s="2">
-        <v>18216</v>
-      </c>
-      <c r="K227" s="2">
-        <v>18854</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>197</v>
       </c>
@@ -9709,26 +5623,8 @@
       <c r="E228" s="2">
         <v>30697</v>
       </c>
-      <c r="F228" s="2">
-        <v>60851</v>
-      </c>
-      <c r="G228" s="2">
-        <v>30168</v>
-      </c>
-      <c r="H228" s="2">
-        <v>30683</v>
-      </c>
-      <c r="I228" s="2">
-        <v>60832</v>
-      </c>
-      <c r="J228" s="2">
-        <v>30137</v>
-      </c>
-      <c r="K228" s="2">
-        <v>30695</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>197</v>
       </c>
@@ -9744,26 +5640,8 @@
       <c r="E229" s="2">
         <v>17631</v>
       </c>
-      <c r="F229" s="2">
-        <v>34529</v>
-      </c>
-      <c r="G229" s="2">
-        <v>16903</v>
-      </c>
-      <c r="H229" s="2">
-        <v>17626</v>
-      </c>
-      <c r="I229" s="2">
-        <v>34467</v>
-      </c>
-      <c r="J229" s="2">
-        <v>16870</v>
-      </c>
-      <c r="K229" s="2">
-        <v>17597</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>197</v>
       </c>
@@ -9779,26 +5657,8 @@
       <c r="E230" s="2">
         <v>16484</v>
       </c>
-      <c r="F230" s="2">
-        <v>32275</v>
-      </c>
-      <c r="G230" s="2">
-        <v>15806</v>
-      </c>
-      <c r="H230" s="2">
-        <v>16469</v>
-      </c>
-      <c r="I230" s="2">
-        <v>32197</v>
-      </c>
-      <c r="J230" s="2">
-        <v>15758</v>
-      </c>
-      <c r="K230" s="2">
-        <v>16439</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>197</v>
       </c>
@@ -9814,26 +5674,8 @@
       <c r="E231" s="2">
         <v>31689</v>
       </c>
-      <c r="F231" s="2">
-        <v>63394</v>
-      </c>
-      <c r="G231" s="2">
-        <v>31743</v>
-      </c>
-      <c r="H231" s="2">
-        <v>31651</v>
-      </c>
-      <c r="I231" s="2">
-        <v>63280</v>
-      </c>
-      <c r="J231" s="2">
-        <v>31700</v>
-      </c>
-      <c r="K231" s="2">
-        <v>31580</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>197</v>
       </c>
@@ -9849,26 +5691,8 @@
       <c r="E232" s="2">
         <v>24548</v>
       </c>
-      <c r="F232" s="2">
-        <v>51471</v>
-      </c>
-      <c r="G232" s="2">
-        <v>26970</v>
-      </c>
-      <c r="H232" s="2">
-        <v>24501</v>
-      </c>
-      <c r="I232" s="2">
-        <v>51456</v>
-      </c>
-      <c r="J232" s="2">
-        <v>26972</v>
-      </c>
-      <c r="K232" s="2">
-        <v>24484</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>197</v>
       </c>
@@ -9884,26 +5708,8 @@
       <c r="E233" s="2">
         <v>45814</v>
       </c>
-      <c r="F233" s="2">
-        <v>92339</v>
-      </c>
-      <c r="G233" s="2">
-        <v>46399</v>
-      </c>
-      <c r="H233" s="2">
-        <v>45940</v>
-      </c>
-      <c r="I233" s="2">
-        <v>92487</v>
-      </c>
-      <c r="J233" s="2">
-        <v>46462</v>
-      </c>
-      <c r="K233" s="2">
-        <v>46025</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="6" t="s">
         <v>197</v>
       </c>
@@ -9919,26 +5725,8 @@
       <c r="E234" s="2">
         <v>14795</v>
       </c>
-      <c r="F234" s="2">
-        <v>30058</v>
-      </c>
-      <c r="G234" s="2">
-        <v>15284</v>
-      </c>
-      <c r="H234" s="2">
-        <v>14774</v>
-      </c>
-      <c r="I234" s="2">
-        <v>30018</v>
-      </c>
-      <c r="J234" s="2">
-        <v>15256</v>
-      </c>
-      <c r="K234" s="2">
-        <v>14762</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>197</v>
       </c>
@@ -9954,26 +5742,8 @@
       <c r="E235" s="2">
         <v>25844</v>
       </c>
-      <c r="F235" s="2">
-        <v>51948</v>
-      </c>
-      <c r="G235" s="2">
-        <v>25985</v>
-      </c>
-      <c r="H235" s="2">
-        <v>25963</v>
-      </c>
-      <c r="I235" s="2">
-        <v>51999</v>
-      </c>
-      <c r="J235" s="2">
-        <v>26014</v>
-      </c>
-      <c r="K235" s="2">
-        <v>25985</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="6" t="s">
         <v>197</v>
       </c>
@@ -9989,26 +5759,8 @@
       <c r="E236" s="2">
         <v>20480</v>
       </c>
-      <c r="F236" s="2">
-        <v>42058</v>
-      </c>
-      <c r="G236" s="2">
-        <v>21597</v>
-      </c>
-      <c r="H236" s="2">
-        <v>20461</v>
-      </c>
-      <c r="I236" s="2">
-        <v>42087</v>
-      </c>
-      <c r="J236" s="2">
-        <v>21586</v>
-      </c>
-      <c r="K236" s="2">
-        <v>20501</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="6" t="s">
         <v>197</v>
       </c>
@@ -10024,26 +5776,8 @@
       <c r="E237" s="2">
         <v>22668</v>
       </c>
-      <c r="F237" s="2">
-        <v>45754</v>
-      </c>
-      <c r="G237" s="2">
-        <v>23127</v>
-      </c>
-      <c r="H237" s="2">
-        <v>22627</v>
-      </c>
-      <c r="I237" s="2">
-        <v>45702</v>
-      </c>
-      <c r="J237" s="2">
-        <v>23102</v>
-      </c>
-      <c r="K237" s="2">
-        <v>22600</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>197</v>
       </c>
@@ -10059,26 +5793,8 @@
       <c r="E238" s="2">
         <v>14406</v>
       </c>
-      <c r="F238" s="2">
-        <v>28569</v>
-      </c>
-      <c r="G238" s="2">
-        <v>14203</v>
-      </c>
-      <c r="H238" s="2">
-        <v>14366</v>
-      </c>
-      <c r="I238" s="2">
-        <v>28545</v>
-      </c>
-      <c r="J238" s="2">
-        <v>14198</v>
-      </c>
-      <c r="K238" s="2">
-        <v>14347</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>197</v>
       </c>
@@ -10094,26 +5810,8 @@
       <c r="E239" s="2">
         <v>17559</v>
       </c>
-      <c r="F239" s="2">
-        <v>38087</v>
-      </c>
-      <c r="G239" s="2">
-        <v>20554</v>
-      </c>
-      <c r="H239" s="2">
-        <v>17533</v>
-      </c>
-      <c r="I239" s="2">
-        <v>38102</v>
-      </c>
-      <c r="J239" s="2">
-        <v>20583</v>
-      </c>
-      <c r="K239" s="2">
-        <v>17519</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="3" t="s">
         <v>220</v>
       </c>
@@ -10129,26 +5827,8 @@
       <c r="E240" s="2">
         <v>1254151</v>
       </c>
-      <c r="F240" s="2">
-        <v>2535971</v>
-      </c>
-      <c r="G240" s="2">
-        <v>1282754</v>
-      </c>
-      <c r="H240" s="2">
-        <v>1253217</v>
-      </c>
-      <c r="I240" s="2">
-        <v>2533979</v>
-      </c>
-      <c r="J240" s="2">
-        <v>1281907</v>
-      </c>
-      <c r="K240" s="2">
-        <v>1252072</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>220</v>
       </c>
@@ -10164,26 +5844,8 @@
       <c r="E241" s="2">
         <v>242064</v>
       </c>
-      <c r="F241" s="2">
-        <v>491868</v>
-      </c>
-      <c r="G241" s="2">
-        <v>249834</v>
-      </c>
-      <c r="H241" s="2">
-        <v>242034</v>
-      </c>
-      <c r="I241" s="2">
-        <v>491673</v>
-      </c>
-      <c r="J241" s="2">
-        <v>249796</v>
-      </c>
-      <c r="K241" s="2">
-        <v>241877</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
         <v>220</v>
       </c>
@@ -10199,26 +5861,8 @@
       <c r="E242" s="2">
         <v>106737</v>
       </c>
-      <c r="F242" s="2">
-        <v>221953</v>
-      </c>
-      <c r="G242" s="2">
-        <v>115305</v>
-      </c>
-      <c r="H242" s="2">
-        <v>106648</v>
-      </c>
-      <c r="I242" s="2">
-        <v>221682</v>
-      </c>
-      <c r="J242" s="2">
-        <v>115187</v>
-      </c>
-      <c r="K242" s="2">
-        <v>106495</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>220</v>
       </c>
@@ -10234,26 +5878,8 @@
       <c r="E243" s="2">
         <v>135327</v>
       </c>
-      <c r="F243" s="2">
-        <v>269915</v>
-      </c>
-      <c r="G243" s="2">
-        <v>134529</v>
-      </c>
-      <c r="H243" s="2">
-        <v>135386</v>
-      </c>
-      <c r="I243" s="2">
-        <v>269991</v>
-      </c>
-      <c r="J243" s="2">
-        <v>134609</v>
-      </c>
-      <c r="K243" s="2">
-        <v>135382</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>220</v>
       </c>
@@ -10269,26 +5895,8 @@
       <c r="E244" s="2">
         <v>122446</v>
       </c>
-      <c r="F244" s="2">
-        <v>245285</v>
-      </c>
-      <c r="G244" s="2">
-        <v>122870</v>
-      </c>
-      <c r="H244" s="2">
-        <v>122415</v>
-      </c>
-      <c r="I244" s="2">
-        <v>245127</v>
-      </c>
-      <c r="J244" s="2">
-        <v>122819</v>
-      </c>
-      <c r="K244" s="2">
-        <v>122308</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
         <v>220</v>
       </c>
@@ -10304,26 +5912,8 @@
       <c r="E245" s="2">
         <v>67538</v>
       </c>
-      <c r="F245" s="2">
-        <v>135685</v>
-      </c>
-      <c r="G245" s="2">
-        <v>68188</v>
-      </c>
-      <c r="H245" s="2">
-        <v>67497</v>
-      </c>
-      <c r="I245" s="2">
-        <v>135561</v>
-      </c>
-      <c r="J245" s="2">
-        <v>68142</v>
-      </c>
-      <c r="K245" s="2">
-        <v>67419</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>220</v>
       </c>
@@ -10339,26 +5929,8 @@
       <c r="E246" s="2">
         <v>77314</v>
       </c>
-      <c r="F246" s="2">
-        <v>153490</v>
-      </c>
-      <c r="G246" s="2">
-        <v>76082</v>
-      </c>
-      <c r="H246" s="2">
-        <v>77408</v>
-      </c>
-      <c r="I246" s="2">
-        <v>153444</v>
-      </c>
-      <c r="J246" s="2">
-        <v>76045</v>
-      </c>
-      <c r="K246" s="2">
-        <v>77399</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>220</v>
       </c>
@@ -10374,26 +5946,8 @@
       <c r="E247" s="2">
         <v>195690</v>
       </c>
-      <c r="F247" s="2">
-        <v>404697</v>
-      </c>
-      <c r="G247" s="2">
-        <v>208998</v>
-      </c>
-      <c r="H247" s="2">
-        <v>195699</v>
-      </c>
-      <c r="I247" s="2">
-        <v>404800</v>
-      </c>
-      <c r="J247" s="2">
-        <v>209048</v>
-      </c>
-      <c r="K247" s="2">
-        <v>195752</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>220</v>
       </c>
@@ -10409,26 +5963,8 @@
       <c r="E248" s="2">
         <v>49956</v>
       </c>
-      <c r="F248" s="2">
-        <v>99176</v>
-      </c>
-      <c r="G248" s="2">
-        <v>49275</v>
-      </c>
-      <c r="H248" s="2">
-        <v>49901</v>
-      </c>
-      <c r="I248" s="2">
-        <v>99028</v>
-      </c>
-      <c r="J248" s="2">
-        <v>49202</v>
-      </c>
-      <c r="K248" s="2">
-        <v>49826</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>220</v>
       </c>
@@ -10444,26 +5980,8 @@
       <c r="E249" s="2">
         <v>48370</v>
       </c>
-      <c r="F249" s="2">
-        <v>98770</v>
-      </c>
-      <c r="G249" s="2">
-        <v>50524</v>
-      </c>
-      <c r="H249" s="2">
-        <v>48246</v>
-      </c>
-      <c r="I249" s="2">
-        <v>98492</v>
-      </c>
-      <c r="J249" s="2">
-        <v>50397</v>
-      </c>
-      <c r="K249" s="2">
-        <v>48095</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="6" t="s">
         <v>220</v>
       </c>
@@ -10479,26 +5997,8 @@
       <c r="E250" s="2">
         <v>46830</v>
       </c>
-      <c r="F250" s="2">
-        <v>92261</v>
-      </c>
-      <c r="G250" s="2">
-        <v>45517</v>
-      </c>
-      <c r="H250" s="2">
-        <v>46744</v>
-      </c>
-      <c r="I250" s="2">
-        <v>92010</v>
-      </c>
-      <c r="J250" s="2">
-        <v>45398</v>
-      </c>
-      <c r="K250" s="2">
-        <v>46612</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="6" t="s">
         <v>220</v>
       </c>
@@ -10514,26 +6014,8 @@
       <c r="E251" s="2">
         <v>34359</v>
       </c>
-      <c r="F251" s="2">
-        <v>67395</v>
-      </c>
-      <c r="G251" s="2">
-        <v>33113</v>
-      </c>
-      <c r="H251" s="2">
-        <v>34282</v>
-      </c>
-      <c r="I251" s="2">
-        <v>67340</v>
-      </c>
-      <c r="J251" s="2">
-        <v>33088</v>
-      </c>
-      <c r="K251" s="2">
-        <v>34252</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="6" t="s">
         <v>220</v>
       </c>
@@ -10549,26 +6031,8 @@
       <c r="E252" s="2">
         <v>132731</v>
       </c>
-      <c r="F252" s="2">
-        <v>266787</v>
-      </c>
-      <c r="G252" s="2">
-        <v>134113</v>
-      </c>
-      <c r="H252" s="2">
-        <v>132674</v>
-      </c>
-      <c r="I252" s="2">
-        <v>266702</v>
-      </c>
-      <c r="J252" s="2">
-        <v>134058</v>
-      </c>
-      <c r="K252" s="2">
-        <v>132644</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="6" t="s">
         <v>220</v>
       </c>
@@ -10584,26 +6048,8 @@
       <c r="E253" s="2">
         <v>24630</v>
       </c>
-      <c r="F253" s="2">
-        <v>48888</v>
-      </c>
-      <c r="G253" s="2">
-        <v>24327</v>
-      </c>
-      <c r="H253" s="2">
-        <v>24561</v>
-      </c>
-      <c r="I253" s="2">
-        <v>48780</v>
-      </c>
-      <c r="J253" s="2">
-        <v>24277</v>
-      </c>
-      <c r="K253" s="2">
-        <v>24503</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="6" t="s">
         <v>220</v>
       </c>
@@ -10619,26 +6065,8 @@
       <c r="E254" s="2">
         <v>11863</v>
       </c>
-      <c r="F254" s="2">
-        <v>23750</v>
-      </c>
-      <c r="G254" s="2">
-        <v>11915</v>
-      </c>
-      <c r="H254" s="2">
-        <v>11835</v>
-      </c>
-      <c r="I254" s="2">
-        <v>23737</v>
-      </c>
-      <c r="J254" s="2">
-        <v>11917</v>
-      </c>
-      <c r="K254" s="2">
-        <v>11820</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="255" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="6" t="s">
         <v>220</v>
       </c>
@@ -10654,26 +6082,8 @@
       <c r="E255" s="2">
         <v>7723</v>
       </c>
-      <c r="F255" s="2">
-        <v>15363</v>
-      </c>
-      <c r="G255" s="2">
-        <v>7657</v>
-      </c>
-      <c r="H255" s="2">
-        <v>7706</v>
-      </c>
-      <c r="I255" s="2">
-        <v>15335</v>
-      </c>
-      <c r="J255" s="2">
-        <v>7644</v>
-      </c>
-      <c r="K255" s="2">
-        <v>7691</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="256" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="6" t="s">
         <v>220</v>
       </c>
@@ -10689,26 +6099,8 @@
       <c r="E256" s="2">
         <v>17412</v>
       </c>
-      <c r="F256" s="2">
-        <v>33272</v>
-      </c>
-      <c r="G256" s="2">
-        <v>15911</v>
-      </c>
-      <c r="H256" s="2">
-        <v>17361</v>
-      </c>
-      <c r="I256" s="2">
-        <v>33243</v>
-      </c>
-      <c r="J256" s="2">
-        <v>15911</v>
-      </c>
-      <c r="K256" s="2">
-        <v>17332</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="257" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>220</v>
       </c>
@@ -10724,26 +6116,8 @@
       <c r="E257" s="2">
         <v>20495</v>
       </c>
-      <c r="F257" s="2">
-        <v>40707</v>
-      </c>
-      <c r="G257" s="2">
-        <v>20240</v>
-      </c>
-      <c r="H257" s="2">
-        <v>20467</v>
-      </c>
-      <c r="I257" s="2">
-        <v>40617</v>
-      </c>
-      <c r="J257" s="2">
-        <v>20202</v>
-      </c>
-      <c r="K257" s="2">
-        <v>20415</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="258" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="6" t="s">
         <v>220</v>
       </c>
@@ -10759,26 +6133,8 @@
       <c r="E258" s="2">
         <v>14635</v>
       </c>
-      <c r="F258" s="2">
-        <v>30154</v>
-      </c>
-      <c r="G258" s="2">
-        <v>15542</v>
-      </c>
-      <c r="H258" s="2">
-        <v>14612</v>
-      </c>
-      <c r="I258" s="2">
-        <v>30125</v>
-      </c>
-      <c r="J258" s="2">
-        <v>15546</v>
-      </c>
-      <c r="K258" s="2">
-        <v>14579</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="259" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="6" t="s">
         <v>220</v>
       </c>
@@ -10794,26 +6150,8 @@
       <c r="E259" s="2">
         <v>19836</v>
       </c>
-      <c r="F259" s="2">
-        <v>41516</v>
-      </c>
-      <c r="G259" s="2">
-        <v>21700</v>
-      </c>
-      <c r="H259" s="2">
-        <v>19816</v>
-      </c>
-      <c r="I259" s="2">
-        <v>41471</v>
-      </c>
-      <c r="J259" s="2">
-        <v>21672</v>
-      </c>
-      <c r="K259" s="2">
-        <v>19799</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="6" t="s">
         <v>220</v>
       </c>
@@ -10829,26 +6167,8 @@
       <c r="E260" s="2">
         <v>51333</v>
       </c>
-      <c r="F260" s="2">
-        <v>107865</v>
-      </c>
-      <c r="G260" s="2">
-        <v>56667</v>
-      </c>
-      <c r="H260" s="2">
-        <v>51198</v>
-      </c>
-      <c r="I260" s="2">
-        <v>107599</v>
-      </c>
-      <c r="J260" s="2">
-        <v>56496</v>
-      </c>
-      <c r="K260" s="2">
-        <v>51103</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="261" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="6" t="s">
         <v>220</v>
       </c>
@@ -10864,26 +6184,8 @@
       <c r="E261" s="2">
         <v>27839</v>
       </c>
-      <c r="F261" s="2">
-        <v>54742</v>
-      </c>
-      <c r="G261" s="2">
-        <v>26982</v>
-      </c>
-      <c r="H261" s="2">
-        <v>27760</v>
-      </c>
-      <c r="I261" s="2">
-        <v>54651</v>
-      </c>
-      <c r="J261" s="2">
-        <v>26947</v>
-      </c>
-      <c r="K261" s="2">
-        <v>27704</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="262" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="6" t="s">
         <v>220</v>
       </c>
@@ -10899,26 +6201,8 @@
       <c r="E262" s="2">
         <v>14264</v>
       </c>
-      <c r="F262" s="2">
-        <v>28992</v>
-      </c>
-      <c r="G262" s="2">
-        <v>14789</v>
-      </c>
-      <c r="H262" s="2">
-        <v>14203</v>
-      </c>
-      <c r="I262" s="2">
-        <v>28934</v>
-      </c>
-      <c r="J262" s="2">
-        <v>14766</v>
-      </c>
-      <c r="K262" s="2">
-        <v>14168</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="6" t="s">
         <v>220</v>
       </c>
@@ -10934,26 +6218,8 @@
       <c r="E263" s="2">
         <v>22781</v>
       </c>
-      <c r="F263" s="2">
-        <v>46150</v>
-      </c>
-      <c r="G263" s="2">
-        <v>23368</v>
-      </c>
-      <c r="H263" s="2">
-        <v>22782</v>
-      </c>
-      <c r="I263" s="2">
-        <v>46166</v>
-      </c>
-      <c r="J263" s="2">
-        <v>23394</v>
-      </c>
-      <c r="K263" s="2">
-        <v>22772</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="264" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="6" t="s">
         <v>220</v>
       </c>
@@ -10969,26 +6235,8 @@
       <c r="E264" s="2">
         <v>4042</v>
       </c>
-      <c r="F264" s="2">
-        <v>9158</v>
-      </c>
-      <c r="G264" s="2">
-        <v>5142</v>
-      </c>
-      <c r="H264" s="2">
-        <v>4016</v>
-      </c>
-      <c r="I264" s="2">
-        <v>9144</v>
-      </c>
-      <c r="J264" s="2">
-        <v>5142</v>
-      </c>
-      <c r="K264" s="2">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>243</v>
       </c>
@@ -11004,26 +6252,8 @@
       <c r="E265" s="2">
         <v>1603654</v>
       </c>
-      <c r="F265" s="2">
-        <v>3231132</v>
-      </c>
-      <c r="G265" s="2">
-        <v>1628096</v>
-      </c>
-      <c r="H265" s="2">
-        <v>1603036</v>
-      </c>
-      <c r="I265" s="2">
-        <v>3230071</v>
-      </c>
-      <c r="J265" s="2">
-        <v>1627652</v>
-      </c>
-      <c r="K265" s="2">
-        <v>1602419</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="266" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="6" t="s">
         <v>243</v>
       </c>
@@ -11039,26 +6269,8 @@
       <c r="E266" s="2">
         <v>494833</v>
       </c>
-      <c r="F266" s="2">
-        <v>1001245</v>
-      </c>
-      <c r="G266" s="2">
-        <v>506659</v>
-      </c>
-      <c r="H266" s="2">
-        <v>494586</v>
-      </c>
-      <c r="I266" s="2">
-        <v>1000693</v>
-      </c>
-      <c r="J266" s="2">
-        <v>506420</v>
-      </c>
-      <c r="K266" s="2">
-        <v>494273</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="267" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="6" t="s">
         <v>243</v>
       </c>
@@ -11074,26 +6286,8 @@
       <c r="E267" s="2">
         <v>103267</v>
       </c>
-      <c r="F267" s="2">
-        <v>209609</v>
-      </c>
-      <c r="G267" s="2">
-        <v>106507</v>
-      </c>
-      <c r="H267" s="2">
-        <v>103102</v>
-      </c>
-      <c r="I267" s="2">
-        <v>209729</v>
-      </c>
-      <c r="J267" s="2">
-        <v>106598</v>
-      </c>
-      <c r="K267" s="2">
-        <v>103131</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="268" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="6" t="s">
         <v>243</v>
       </c>
@@ -11109,26 +6303,8 @@
       <c r="E268" s="2">
         <v>119936</v>
       </c>
-      <c r="F268" s="2">
-        <v>244800</v>
-      </c>
-      <c r="G268" s="2">
-        <v>124881</v>
-      </c>
-      <c r="H268" s="2">
-        <v>119919</v>
-      </c>
-      <c r="I268" s="2">
-        <v>244657</v>
-      </c>
-      <c r="J268" s="2">
-        <v>124781</v>
-      </c>
-      <c r="K268" s="2">
-        <v>119876</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="269" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
         <v>243</v>
       </c>
@@ -11144,26 +6320,8 @@
       <c r="E269" s="2">
         <v>90020</v>
       </c>
-      <c r="F269" s="2">
-        <v>178577</v>
-      </c>
-      <c r="G269" s="2">
-        <v>88632</v>
-      </c>
-      <c r="H269" s="2">
-        <v>89945</v>
-      </c>
-      <c r="I269" s="2">
-        <v>178378</v>
-      </c>
-      <c r="J269" s="2">
-        <v>88548</v>
-      </c>
-      <c r="K269" s="2">
-        <v>89830</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="6" t="s">
         <v>243</v>
       </c>
@@ -11179,26 +6337,8 @@
       <c r="E270" s="2">
         <v>89724</v>
       </c>
-      <c r="F270" s="2">
-        <v>179161</v>
-      </c>
-      <c r="G270" s="2">
-        <v>89312</v>
-      </c>
-      <c r="H270" s="2">
-        <v>89849</v>
-      </c>
-      <c r="I270" s="2">
-        <v>179026</v>
-      </c>
-      <c r="J270" s="2">
-        <v>89245</v>
-      </c>
-      <c r="K270" s="2">
-        <v>89781</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="271" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>243</v>
       </c>
@@ -11214,26 +6354,8 @@
       <c r="E271" s="2">
         <v>91886</v>
       </c>
-      <c r="F271" s="2">
-        <v>189098</v>
-      </c>
-      <c r="G271" s="2">
-        <v>97327</v>
-      </c>
-      <c r="H271" s="2">
-        <v>91771</v>
-      </c>
-      <c r="I271" s="2">
-        <v>188903</v>
-      </c>
-      <c r="J271" s="2">
-        <v>97248</v>
-      </c>
-      <c r="K271" s="2">
-        <v>91655</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="272" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="6" t="s">
         <v>243</v>
       </c>
@@ -11249,26 +6371,8 @@
       <c r="E272" s="2">
         <v>171778</v>
       </c>
-      <c r="F272" s="2">
-        <v>339264</v>
-      </c>
-      <c r="G272" s="2">
-        <v>167578</v>
-      </c>
-      <c r="H272" s="2">
-        <v>171686</v>
-      </c>
-      <c r="I272" s="2">
-        <v>339052</v>
-      </c>
-      <c r="J272" s="2">
-        <v>167475</v>
-      </c>
-      <c r="K272" s="2">
-        <v>171577</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="273" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="6" t="s">
         <v>243</v>
       </c>
@@ -11284,26 +6388,8 @@
       <c r="E273" s="2">
         <v>59188</v>
       </c>
-      <c r="F273" s="2">
-        <v>118751</v>
-      </c>
-      <c r="G273" s="2">
-        <v>59628</v>
-      </c>
-      <c r="H273" s="2">
-        <v>59123</v>
-      </c>
-      <c r="I273" s="2">
-        <v>118612</v>
-      </c>
-      <c r="J273" s="2">
-        <v>59573</v>
-      </c>
-      <c r="K273" s="2">
-        <v>59039</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="274" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="6" t="s">
         <v>243</v>
       </c>
@@ -11319,26 +6405,8 @@
       <c r="E274" s="2">
         <v>53582</v>
       </c>
-      <c r="F274" s="2">
-        <v>108595</v>
-      </c>
-      <c r="G274" s="2">
-        <v>55051</v>
-      </c>
-      <c r="H274" s="2">
-        <v>53544</v>
-      </c>
-      <c r="I274" s="2">
-        <v>108580</v>
-      </c>
-      <c r="J274" s="2">
-        <v>55058</v>
-      </c>
-      <c r="K274" s="2">
-        <v>53522</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="275" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="6" t="s">
         <v>243</v>
       </c>
@@ -11354,26 +6422,8 @@
       <c r="E275" s="2">
         <v>0</v>
       </c>
-      <c r="F275" s="2">
-        <v>0</v>
-      </c>
-      <c r="G275" s="2">
-        <v>0</v>
-      </c>
-      <c r="H275" s="2">
-        <v>0</v>
-      </c>
-      <c r="I275" s="2">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2">
-        <v>0</v>
-      </c>
-      <c r="K275" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="276" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="6" t="s">
         <v>243</v>
       </c>
@@ -11389,26 +6439,8 @@
       <c r="E276" s="2">
         <v>262889</v>
       </c>
-      <c r="F276" s="2">
-        <v>532015</v>
-      </c>
-      <c r="G276" s="2">
-        <v>269132</v>
-      </c>
-      <c r="H276" s="2">
-        <v>262883</v>
-      </c>
-      <c r="I276" s="2">
-        <v>531887</v>
-      </c>
-      <c r="J276" s="2">
-        <v>269045</v>
-      </c>
-      <c r="K276" s="2">
-        <v>262842</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="277" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
         <v>243</v>
       </c>
@@ -11424,26 +6456,8 @@
       <c r="E277" s="2">
         <v>0</v>
       </c>
-      <c r="F277" s="2">
-        <v>0</v>
-      </c>
-      <c r="G277" s="2">
-        <v>0</v>
-      </c>
-      <c r="H277" s="2">
-        <v>0</v>
-      </c>
-      <c r="I277" s="2">
-        <v>0</v>
-      </c>
-      <c r="J277" s="2">
-        <v>0</v>
-      </c>
-      <c r="K277" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="278" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="6" t="s">
         <v>243</v>
       </c>
@@ -11459,26 +6473,8 @@
       <c r="E278" s="2">
         <v>50963</v>
       </c>
-      <c r="F278" s="2">
-        <v>100748</v>
-      </c>
-      <c r="G278" s="2">
-        <v>49814</v>
-      </c>
-      <c r="H278" s="2">
-        <v>50934</v>
-      </c>
-      <c r="I278" s="2">
-        <v>100708</v>
-      </c>
-      <c r="J278" s="2">
-        <v>49812</v>
-      </c>
-      <c r="K278" s="2">
-        <v>50896</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="279" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="6" t="s">
         <v>243</v>
       </c>
@@ -11494,26 +6490,8 @@
       <c r="E279" s="2">
         <v>110861</v>
       </c>
-      <c r="F279" s="2">
-        <v>232807</v>
-      </c>
-      <c r="G279" s="2">
-        <v>122024</v>
-      </c>
-      <c r="H279" s="2">
-        <v>110783</v>
-      </c>
-      <c r="I279" s="2">
-        <v>232963</v>
-      </c>
-      <c r="J279" s="2">
-        <v>122124</v>
-      </c>
-      <c r="K279" s="2">
-        <v>110839</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="280" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="6" t="s">
         <v>243</v>
       </c>
@@ -11529,26 +6507,8 @@
       <c r="E280" s="2">
         <v>178810</v>
       </c>
-      <c r="F280" s="2">
-        <v>358641</v>
-      </c>
-      <c r="G280" s="2">
-        <v>179532</v>
-      </c>
-      <c r="H280" s="2">
-        <v>179109</v>
-      </c>
-      <c r="I280" s="2">
-        <v>359083</v>
-      </c>
-      <c r="J280" s="2">
-        <v>179741</v>
-      </c>
-      <c r="K280" s="2">
-        <v>179342</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="281" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
         <v>243</v>
       </c>
@@ -11564,26 +6524,8 @@
       <c r="E281" s="2">
         <v>0</v>
       </c>
-      <c r="F281" s="2">
-        <v>0</v>
-      </c>
-      <c r="G281" s="2">
-        <v>0</v>
-      </c>
-      <c r="H281" s="2">
-        <v>0</v>
-      </c>
-      <c r="I281" s="2">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2">
-        <v>0</v>
-      </c>
-      <c r="K281" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="282" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="6" t="s">
         <v>243</v>
       </c>
@@ -11599,26 +6541,8 @@
       <c r="E282" s="2">
         <v>12621</v>
       </c>
-      <c r="F282" s="2">
-        <v>25135</v>
-      </c>
-      <c r="G282" s="2">
-        <v>12530</v>
-      </c>
-      <c r="H282" s="2">
-        <v>12605</v>
-      </c>
-      <c r="I282" s="2">
-        <v>25092</v>
-      </c>
-      <c r="J282" s="2">
-        <v>12525</v>
-      </c>
-      <c r="K282" s="2">
-        <v>12567</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="283" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="6" t="s">
         <v>243</v>
       </c>
@@ -11634,26 +6558,8 @@
       <c r="E283" s="2">
         <v>28793</v>
       </c>
-      <c r="F283" s="2">
-        <v>59009</v>
-      </c>
-      <c r="G283" s="2">
-        <v>30261</v>
-      </c>
-      <c r="H283" s="2">
-        <v>28748</v>
-      </c>
-      <c r="I283" s="2">
-        <v>58926</v>
-      </c>
-      <c r="J283" s="2">
-        <v>30213</v>
-      </c>
-      <c r="K283" s="2">
-        <v>28713</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="284" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="6" t="s">
         <v>243</v>
       </c>
@@ -11669,26 +6575,8 @@
       <c r="E284" s="2">
         <v>28079</v>
       </c>
-      <c r="F284" s="2">
-        <v>56138</v>
-      </c>
-      <c r="G284" s="2">
-        <v>28125</v>
-      </c>
-      <c r="H284" s="2">
-        <v>28013</v>
-      </c>
-      <c r="I284" s="2">
-        <v>56067</v>
-      </c>
-      <c r="J284" s="2">
-        <v>28089</v>
-      </c>
-      <c r="K284" s="2">
-        <v>27978</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="285" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
         <v>243</v>
       </c>
@@ -11704,26 +6592,8 @@
       <c r="E285" s="2">
         <v>23848</v>
       </c>
-      <c r="F285" s="2">
-        <v>48264</v>
-      </c>
-      <c r="G285" s="2">
-        <v>24455</v>
-      </c>
-      <c r="H285" s="2">
-        <v>23809</v>
-      </c>
-      <c r="I285" s="2">
-        <v>48175</v>
-      </c>
-      <c r="J285" s="2">
-        <v>24397</v>
-      </c>
-      <c r="K285" s="2">
-        <v>23778</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="286" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="6" t="s">
         <v>243</v>
       </c>
@@ -11739,26 +6609,8 @@
       <c r="E286" s="2">
         <v>20558</v>
       </c>
-      <c r="F286" s="2">
-        <v>39939</v>
-      </c>
-      <c r="G286" s="2">
-        <v>19431</v>
-      </c>
-      <c r="H286" s="2">
-        <v>20508</v>
-      </c>
-      <c r="I286" s="2">
-        <v>39918</v>
-      </c>
-      <c r="J286" s="2">
-        <v>19436</v>
-      </c>
-      <c r="K286" s="2">
-        <v>20482</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="287" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="6" t="s">
         <v>243</v>
       </c>
@@ -11774,26 +6626,8 @@
       <c r="E287" s="2">
         <v>20476</v>
       </c>
-      <c r="F287" s="2">
-        <v>40878</v>
-      </c>
-      <c r="G287" s="2">
-        <v>20434</v>
-      </c>
-      <c r="H287" s="2">
-        <v>20444</v>
-      </c>
-      <c r="I287" s="2">
-        <v>40825</v>
-      </c>
-      <c r="J287" s="2">
-        <v>20412</v>
-      </c>
-      <c r="K287" s="2">
-        <v>20413</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="288" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="6" t="s">
         <v>243</v>
       </c>
@@ -11809,26 +6643,8 @@
       <c r="E288" s="2">
         <v>16835</v>
       </c>
-      <c r="F288" s="2">
-        <v>33345</v>
-      </c>
-      <c r="G288" s="2">
-        <v>16532</v>
-      </c>
-      <c r="H288" s="2">
-        <v>16813</v>
-      </c>
-      <c r="I288" s="2">
-        <v>33308</v>
-      </c>
-      <c r="J288" s="2">
-        <v>16500</v>
-      </c>
-      <c r="K288" s="2">
-        <v>16808</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="289" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>243</v>
       </c>
@@ -11844,26 +6660,8 @@
       <c r="E289" s="2">
         <v>18619</v>
       </c>
-      <c r="F289" s="2">
-        <v>36258</v>
-      </c>
-      <c r="G289" s="2">
-        <v>17674</v>
-      </c>
-      <c r="H289" s="2">
-        <v>18584</v>
-      </c>
-      <c r="I289" s="2">
-        <v>36170</v>
-      </c>
-      <c r="J289" s="2">
-        <v>17646</v>
-      </c>
-      <c r="K289" s="2">
-        <v>18524</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="290" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>243</v>
       </c>
@@ -11879,26 +6677,8 @@
       <c r="E290" s="2">
         <v>30341</v>
       </c>
-      <c r="F290" s="2">
-        <v>59720</v>
-      </c>
-      <c r="G290" s="2">
-        <v>29396</v>
-      </c>
-      <c r="H290" s="2">
-        <v>30324</v>
-      </c>
-      <c r="I290" s="2">
-        <v>59700</v>
-      </c>
-      <c r="J290" s="2">
-        <v>29381</v>
-      </c>
-      <c r="K290" s="2">
-        <v>30319</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="291" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>243</v>
       </c>
@@ -11914,26 +6694,8 @@
       <c r="E291" s="2">
         <v>20580</v>
       </c>
-      <c r="F291" s="2">
-        <v>40380</v>
-      </c>
-      <c r="G291" s="2">
-        <v>19840</v>
-      </c>
-      <c r="H291" s="2">
-        <v>20540</v>
-      </c>
-      <c r="I291" s="2">
-        <v>40312</v>
-      </c>
-      <c r="J291" s="2">
-        <v>19805</v>
-      </c>
-      <c r="K291" s="2">
-        <v>20507</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="292" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="3" t="s">
         <v>269</v>
       </c>
@@ -11949,26 +6711,8 @@
       <c r="E292" s="2">
         <v>335347</v>
       </c>
-      <c r="F292" s="2">
-        <v>670837</v>
-      </c>
-      <c r="G292" s="2">
-        <v>335625</v>
-      </c>
-      <c r="H292" s="2">
-        <v>335212</v>
-      </c>
-      <c r="I292" s="2">
-        <v>670632</v>
-      </c>
-      <c r="J292" s="2">
-        <v>335483</v>
-      </c>
-      <c r="K292" s="2">
-        <v>335149</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="293" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>269</v>
       </c>
@@ -11984,26 +6728,8 @@
       <c r="E293" s="2">
         <v>244838</v>
       </c>
-      <c r="F293" s="2">
-        <v>488748</v>
-      </c>
-      <c r="G293" s="2">
-        <v>243959</v>
-      </c>
-      <c r="H293" s="2">
-        <v>244789</v>
-      </c>
-      <c r="I293" s="2">
-        <v>488613</v>
-      </c>
-      <c r="J293" s="2">
-        <v>243883</v>
-      </c>
-      <c r="K293" s="2">
-        <v>244730</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="294" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="6" t="s">
         <v>269</v>
       </c>
@@ -12018,24 +6744,6 @@
       </c>
       <c r="E294" s="2">
         <v>90509</v>
-      </c>
-      <c r="F294" s="2">
-        <v>182089</v>
-      </c>
-      <c r="G294" s="2">
-        <v>91666</v>
-      </c>
-      <c r="H294" s="2">
-        <v>90423</v>
-      </c>
-      <c r="I294" s="2">
-        <v>182019</v>
-      </c>
-      <c r="J294" s="2">
-        <v>91600</v>
-      </c>
-      <c r="K294" s="2">
-        <v>90419</v>
       </c>
     </row>
   </sheetData>
@@ -12049,7 +6757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
